--- a/src/main/resources/dataCreate/DataCreate_SRAT.xlsx
+++ b/src/main/resources/dataCreate/DataCreate_SRAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="5430" windowWidth="15375" windowHeight="7875" activeTab="3"/>
+    <workbookView xWindow="5310" yWindow="5880" windowWidth="15375" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4235" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4296" uniqueCount="341">
   <si>
     <t>Reference_TcID</t>
   </si>
@@ -1015,6 +1015,36 @@
   </si>
   <si>
     <t>Reg2ndRevExSp4168</t>
+  </si>
+  <si>
+    <t>baseAmount</t>
+  </si>
+  <si>
+    <t>percentIncrease</t>
+  </si>
+  <si>
+    <t>calFrequency</t>
+  </si>
+  <si>
+    <t>rentalActivity</t>
+  </si>
+  <si>
+    <t>Auto-Populate</t>
+  </si>
+  <si>
+    <t>6624170</t>
+  </si>
+  <si>
+    <t>Reg2ndRevEx4170</t>
+  </si>
+  <si>
+    <t>Reg2ndRevExSp4170</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>AutoPopulateRA</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1655,15 +1685,19 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1700,13 +1734,18 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2022,10 +2061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB988"/>
+  <dimension ref="A1:AA988"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2034,19 +2073,26 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" customWidth="1"/>
-    <col min="6" max="7" width="40.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
     <col min="10" max="11" width="21.28515625" customWidth="1"/>
-    <col min="12" max="14" width="14.42578125" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="155" customWidth="1"/>
     <col min="15" max="15" width="8.7109375" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" customWidth="1"/>
     <col min="17" max="17" width="18.42578125" customWidth="1"/>
-    <col min="18" max="28" width="8.7109375" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" customWidth="1"/>
+    <col min="20" max="20" width="20.85546875" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" customWidth="1"/>
+    <col min="23" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:27">
       <c r="A1" s="43" t="s">
         <v>46</v>
       </c>
@@ -2083,10 +2129,10 @@
       <c r="L1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="129" t="s">
+      <c r="N1" s="9" t="s">
         <v>325</v>
       </c>
       <c r="O1" s="12" t="s">
@@ -2101,18 +2147,25 @@
       <c r="R1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
+      <c r="S1" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>334</v>
+      </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-    </row>
-    <row r="2" spans="1:28" s="22" customFormat="1" ht="15" customHeight="1">
+    </row>
+    <row r="2" spans="1:27" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="49" t="s">
         <v>58</v>
       </c>
@@ -2147,7 +2200,7 @@
       <c r="M2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="25"/>
+      <c r="N2" s="151"/>
       <c r="O2" s="25" t="s">
         <v>50</v>
       </c>
@@ -2161,7 +2214,7 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:27" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
@@ -2196,7 +2249,7 @@
       <c r="M3" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="25"/>
+      <c r="N3" s="151"/>
       <c r="O3" s="25" t="s">
         <v>50</v>
       </c>
@@ -2210,7 +2263,7 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:27" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="47" t="s">
         <v>69</v>
       </c>
@@ -2245,7 +2298,7 @@
       <c r="M4" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="25"/>
+      <c r="N4" s="151"/>
       <c r="O4" s="25" t="s">
         <v>50</v>
       </c>
@@ -2259,7 +2312,7 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:27" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="20" t="s">
         <v>70</v>
       </c>
@@ -2294,7 +2347,7 @@
       <c r="M5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="25"/>
+      <c r="N5" s="151"/>
       <c r="O5" s="25" t="s">
         <v>50</v>
       </c>
@@ -2308,7 +2361,7 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:27" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="44">
         <v>6530957</v>
       </c>
@@ -2343,7 +2396,7 @@
       <c r="M6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="25"/>
+      <c r="N6" s="151"/>
       <c r="O6" s="25" t="s">
         <v>50</v>
       </c>
@@ -2357,7 +2410,7 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:27" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="44">
         <v>6530958</v>
       </c>
@@ -2392,7 +2445,7 @@
       <c r="M7" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="25"/>
+      <c r="N7" s="151"/>
       <c r="O7" s="25" t="s">
         <v>50</v>
       </c>
@@ -2406,7 +2459,7 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:27" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="20" t="s">
         <v>72</v>
       </c>
@@ -2441,7 +2494,7 @@
       <c r="M8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="25"/>
+      <c r="N8" s="151"/>
       <c r="O8" s="25" t="s">
         <v>50</v>
       </c>
@@ -2455,7 +2508,7 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:27" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="48" t="s">
         <v>73</v>
       </c>
@@ -2490,7 +2543,7 @@
       <c r="M9" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="25"/>
+      <c r="N9" s="151"/>
       <c r="O9" s="25" t="s">
         <v>50</v>
       </c>
@@ -2504,7 +2557,7 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:27" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="44">
         <v>6551796</v>
       </c>
@@ -2539,7 +2592,7 @@
       <c r="M10" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="25"/>
+      <c r="N10" s="151"/>
       <c r="O10" s="25" t="s">
         <v>50</v>
       </c>
@@ -2553,7 +2606,7 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:27" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="45">
         <v>6551803</v>
       </c>
@@ -2587,7 +2640,7 @@
       <c r="M11" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="25"/>
+      <c r="N11" s="151"/>
       <c r="O11" s="25" t="s">
         <v>50</v>
       </c>
@@ -2601,7 +2654,7 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15" customHeight="1">
+    <row r="12" spans="1:27" ht="15" customHeight="1">
       <c r="A12" s="44">
         <v>6555587</v>
       </c>
@@ -2636,7 +2689,7 @@
       <c r="M12" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N12" s="11"/>
+      <c r="N12" s="152"/>
       <c r="O12" s="11" t="s">
         <v>50</v>
       </c>
@@ -2650,7 +2703,7 @@
         <v>201534</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" customHeight="1">
+    <row r="13" spans="1:27" ht="15" customHeight="1">
       <c r="A13" s="44">
         <v>6555588</v>
       </c>
@@ -2685,7 +2738,7 @@
       <c r="M13" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N13" s="11"/>
+      <c r="N13" s="152"/>
       <c r="O13" s="11" t="s">
         <v>50</v>
       </c>
@@ -2699,7 +2752,7 @@
         <v>201534</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" customHeight="1">
+    <row r="14" spans="1:27" ht="15" customHeight="1">
       <c r="A14" s="44">
         <v>6530927</v>
       </c>
@@ -2734,7 +2787,7 @@
       <c r="M14" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="11"/>
+      <c r="N14" s="152"/>
       <c r="O14" s="11" t="s">
         <v>50</v>
       </c>
@@ -2748,7 +2801,7 @@
         <v>201534</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" customHeight="1">
+    <row r="15" spans="1:27" ht="15" customHeight="1">
       <c r="A15" s="44">
         <v>6530966</v>
       </c>
@@ -2783,7 +2836,7 @@
       <c r="M15" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="11"/>
+      <c r="N15" s="152"/>
       <c r="O15" s="11" t="s">
         <v>50</v>
       </c>
@@ -2797,7 +2850,7 @@
         <v>201534</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15" customHeight="1">
+    <row r="16" spans="1:27" ht="15" customHeight="1">
       <c r="A16" s="44">
         <v>6530960</v>
       </c>
@@ -2832,7 +2885,7 @@
       <c r="M16" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N16" s="11"/>
+      <c r="N16" s="152"/>
       <c r="O16" s="11" t="s">
         <v>50</v>
       </c>
@@ -2881,7 +2934,7 @@
       <c r="M17" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N17" s="11"/>
+      <c r="N17" s="152"/>
       <c r="O17" s="11" t="s">
         <v>50</v>
       </c>
@@ -2930,7 +2983,7 @@
       <c r="M18" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N18" s="11"/>
+      <c r="N18" s="152"/>
       <c r="O18" s="11" t="s">
         <v>50</v>
       </c>
@@ -2979,7 +3032,7 @@
       <c r="M19" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="11"/>
+      <c r="N19" s="152"/>
       <c r="O19" s="11" t="s">
         <v>50</v>
       </c>
@@ -3028,7 +3081,7 @@
       <c r="M20" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N20" s="11"/>
+      <c r="N20" s="152"/>
       <c r="O20" s="11" t="s">
         <v>50</v>
       </c>
@@ -3076,7 +3129,7 @@
       <c r="M21" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N21" s="11"/>
+      <c r="N21" s="152"/>
       <c r="O21" s="11" t="s">
         <v>50</v>
       </c>
@@ -3123,11 +3176,11 @@
       <c r="L22" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="M22" s="34" t="s">
+      <c r="M22" s="149" t="s">
         <v>85</v>
       </c>
       <c r="N22" s="34"/>
-      <c r="O22" s="34" t="s">
+      <c r="O22" s="150" t="s">
         <v>50</v>
       </c>
       <c r="P22" s="57" t="s">
@@ -3173,11 +3226,11 @@
       <c r="L23" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="M23" s="34" t="s">
+      <c r="M23" s="149" t="s">
         <v>85</v>
       </c>
       <c r="N23" s="34"/>
-      <c r="O23" s="34" t="s">
+      <c r="O23" s="150" t="s">
         <v>50</v>
       </c>
       <c r="P23" s="57" t="s">
@@ -3223,11 +3276,11 @@
       <c r="L24" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="M24" s="34" t="s">
+      <c r="M24" s="149" t="s">
         <v>85</v>
       </c>
       <c r="N24" s="34"/>
-      <c r="O24" s="34" t="s">
+      <c r="O24" s="150" t="s">
         <v>50</v>
       </c>
       <c r="P24" s="57" t="s">
@@ -3273,11 +3326,11 @@
       <c r="L25" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="M25" s="34" t="s">
+      <c r="M25" s="149" t="s">
         <v>85</v>
       </c>
       <c r="N25" s="34"/>
-      <c r="O25" s="34" t="s">
+      <c r="O25" s="150" t="s">
         <v>50</v>
       </c>
       <c r="P25" s="57" t="s">
@@ -3323,11 +3376,11 @@
       <c r="L26" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="M26" s="34" t="s">
+      <c r="M26" s="149" t="s">
         <v>85</v>
       </c>
       <c r="N26" s="34"/>
-      <c r="O26" s="34" t="s">
+      <c r="O26" s="150" t="s">
         <v>50</v>
       </c>
       <c r="P26" s="57" t="s">
@@ -3373,11 +3426,11 @@
       <c r="L27" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="M27" s="34" t="s">
+      <c r="M27" s="149" t="s">
         <v>85</v>
       </c>
       <c r="N27" s="34"/>
-      <c r="O27" s="34" t="s">
+      <c r="O27" s="150" t="s">
         <v>50</v>
       </c>
       <c r="P27" s="57" t="s">
@@ -3423,11 +3476,11 @@
       <c r="L28" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="M28" s="34" t="s">
+      <c r="M28" s="149" t="s">
         <v>85</v>
       </c>
       <c r="N28" s="34"/>
-      <c r="O28" s="34" t="s">
+      <c r="O28" s="150" t="s">
         <v>50</v>
       </c>
       <c r="P28" s="57" t="s">
@@ -3473,11 +3526,11 @@
       <c r="L29" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="M29" s="34" t="s">
+      <c r="M29" s="149" t="s">
         <v>85</v>
       </c>
       <c r="N29" s="34"/>
-      <c r="O29" s="34" t="s">
+      <c r="O29" s="150" t="s">
         <v>50</v>
       </c>
       <c r="P29" s="57" t="s">
@@ -3523,11 +3576,11 @@
       <c r="L30" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="M30" s="34" t="s">
+      <c r="M30" s="149" t="s">
         <v>85</v>
       </c>
       <c r="N30" s="34"/>
-      <c r="O30" s="34" t="s">
+      <c r="O30" s="150" t="s">
         <v>50</v>
       </c>
       <c r="P30" s="57" t="s">
@@ -3573,11 +3626,11 @@
       <c r="L31" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="M31" s="34" t="s">
+      <c r="M31" s="149" t="s">
         <v>85</v>
       </c>
       <c r="N31" s="34"/>
-      <c r="O31" s="34" t="s">
+      <c r="O31" s="150" t="s">
         <v>50</v>
       </c>
       <c r="P31" s="57" t="s">
@@ -3592,21 +3645,21 @@
     </row>
     <row r="32" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
       <c r="A32" s="112"/>
-      <c r="B32" s="132" t="s">
+      <c r="B32" s="136" t="s">
         <v>229</v>
       </c>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="133"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
       <c r="H32" s="59"/>
       <c r="I32" s="59"/>
       <c r="J32" s="59"/>
       <c r="K32" s="59"/>
       <c r="L32" s="59"/>
       <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
+      <c r="N32" s="153"/>
       <c r="O32" s="59"/>
       <c r="P32" s="57" t="s">
         <v>201</v>
@@ -3650,7 +3703,7 @@
       <c r="M33" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="N33" s="53"/>
+      <c r="N33" s="154"/>
       <c r="O33" s="53" t="s">
         <v>50</v>
       </c>
@@ -3700,7 +3753,7 @@
       <c r="M34" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="N34" s="53"/>
+      <c r="N34" s="154"/>
       <c r="O34" s="53" t="s">
         <v>50</v>
       </c>
@@ -3750,7 +3803,7 @@
       <c r="M35" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="N35" s="53"/>
+      <c r="N35" s="154"/>
       <c r="O35" s="53" t="s">
         <v>50</v>
       </c>
@@ -3800,7 +3853,7 @@
       <c r="M36" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="N36" s="53"/>
+      <c r="N36" s="154"/>
       <c r="O36" s="53" t="s">
         <v>50</v>
       </c>
@@ -3828,7 +3881,7 @@
       <c r="K37" s="22"/>
       <c r="L37" s="25"/>
       <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
+      <c r="N37" s="151"/>
       <c r="O37" s="25"/>
       <c r="P37" s="57" t="s">
         <v>201</v>
@@ -3872,7 +3925,7 @@
       <c r="M38" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N38" s="53"/>
+      <c r="N38" s="154"/>
       <c r="O38" s="53" t="s">
         <v>50</v>
       </c>
@@ -3922,7 +3975,7 @@
       <c r="M39" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N39" s="53"/>
+      <c r="N39" s="154"/>
       <c r="O39" s="53" t="s">
         <v>50</v>
       </c>
@@ -3972,7 +4025,7 @@
       <c r="M40" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N40" s="53"/>
+      <c r="N40" s="154"/>
       <c r="O40" s="53" t="s">
         <v>50</v>
       </c>
@@ -4022,7 +4075,7 @@
       <c r="M41" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N41" s="53"/>
+      <c r="N41" s="154"/>
       <c r="O41" s="53" t="s">
         <v>50</v>
       </c>
@@ -4072,7 +4125,7 @@
       <c r="M42" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="N42" s="53"/>
+      <c r="N42" s="154"/>
       <c r="O42" s="53" t="s">
         <v>50</v>
       </c>
@@ -4122,7 +4175,7 @@
       <c r="M43" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="N43" s="53"/>
+      <c r="N43" s="154"/>
       <c r="O43" s="53" t="s">
         <v>50</v>
       </c>
@@ -4172,7 +4225,7 @@
       <c r="M44" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="N44" s="53"/>
+      <c r="N44" s="154"/>
       <c r="O44" s="53" t="s">
         <v>50</v>
       </c>
@@ -4222,7 +4275,7 @@
       <c r="M45" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="N45" s="53"/>
+      <c r="N45" s="154"/>
       <c r="O45" s="53" t="s">
         <v>50</v>
       </c>
@@ -4238,21 +4291,21 @@
     </row>
     <row r="46" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
       <c r="A46" s="112"/>
-      <c r="B46" s="132" t="s">
+      <c r="B46" s="136" t="s">
         <v>204</v>
       </c>
-      <c r="C46" s="133"/>
-      <c r="D46" s="133"/>
-      <c r="E46" s="133"/>
-      <c r="F46" s="133"/>
-      <c r="G46" s="133"/>
+      <c r="C46" s="137"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="137"/>
+      <c r="F46" s="137"/>
+      <c r="G46" s="137"/>
       <c r="H46" s="59"/>
       <c r="I46" s="59"/>
       <c r="J46" s="59"/>
       <c r="K46" s="59"/>
       <c r="L46" s="59"/>
       <c r="M46" s="59"/>
-      <c r="N46" s="59"/>
+      <c r="N46" s="153"/>
       <c r="O46" s="59"/>
       <c r="P46" s="57" t="s">
         <v>201</v>
@@ -4296,7 +4349,7 @@
       <c r="M47" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="N47" s="53"/>
+      <c r="N47" s="154"/>
       <c r="O47" s="53" t="s">
         <v>50</v>
       </c>
@@ -4346,7 +4399,7 @@
       <c r="M48" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="N48" s="53"/>
+      <c r="N48" s="154"/>
       <c r="O48" s="53" t="s">
         <v>50</v>
       </c>
@@ -4396,7 +4449,7 @@
       <c r="M49" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="N49" s="53"/>
+      <c r="N49" s="154"/>
       <c r="O49" s="53" t="s">
         <v>50</v>
       </c>
@@ -4446,7 +4499,7 @@
       <c r="M50" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="N50" s="53"/>
+      <c r="N50" s="154"/>
       <c r="O50" s="53" t="s">
         <v>50</v>
       </c>
@@ -4501,7 +4554,7 @@
       <c r="M52" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N52" s="53"/>
+      <c r="N52" s="154"/>
       <c r="O52" s="53" t="s">
         <v>50</v>
       </c>
@@ -4551,7 +4604,7 @@
       <c r="M53" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N53" s="53"/>
+      <c r="N53" s="154"/>
       <c r="O53" s="53" t="s">
         <v>50</v>
       </c>
@@ -4601,7 +4654,7 @@
       <c r="M54" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="53"/>
+      <c r="N54" s="154"/>
       <c r="O54" s="53" t="s">
         <v>50</v>
       </c>
@@ -4651,7 +4704,7 @@
       <c r="M55" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N55" s="53"/>
+      <c r="N55" s="154"/>
       <c r="O55" s="53" t="s">
         <v>50</v>
       </c>
@@ -4706,7 +4759,7 @@
       <c r="M57" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="N57" s="53"/>
+      <c r="N57" s="154"/>
       <c r="O57" s="53" t="s">
         <v>50</v>
       </c>
@@ -4756,7 +4809,7 @@
       <c r="M58" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="N58" s="53"/>
+      <c r="N58" s="154"/>
       <c r="O58" s="53" t="s">
         <v>50</v>
       </c>
@@ -4806,7 +4859,7 @@
       <c r="M59" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="N59" s="53"/>
+      <c r="N59" s="154"/>
       <c r="O59" s="53" t="s">
         <v>50</v>
       </c>
@@ -4856,7 +4909,7 @@
       <c r="M60" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="N60" s="53"/>
+      <c r="N60" s="154"/>
       <c r="O60" s="53" t="s">
         <v>50</v>
       </c>
@@ -4877,14 +4930,15 @@
     </row>
     <row r="62" spans="1:18" s="101" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A62" s="110"/>
-      <c r="B62" s="134" t="s">
+      <c r="B62" s="138" t="s">
         <v>259</v>
       </c>
-      <c r="C62" s="135"/>
-      <c r="D62" s="135"/>
-      <c r="E62" s="135"/>
-      <c r="F62" s="135"/>
-      <c r="G62" s="135"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="139"/>
+      <c r="N62" s="100"/>
       <c r="P62" s="57" t="s">
         <v>201</v>
       </c>
@@ -4925,7 +4979,7 @@
       <c r="M63" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N63" s="53"/>
+      <c r="N63" s="154"/>
       <c r="O63" s="53" t="s">
         <v>268</v>
       </c>
@@ -4975,7 +5029,7 @@
       <c r="M64" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N64" s="53"/>
+      <c r="N64" s="154"/>
       <c r="O64" s="53" t="s">
         <v>268</v>
       </c>
@@ -5025,7 +5079,7 @@
       <c r="M65" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N65" s="53"/>
+      <c r="N65" s="154"/>
       <c r="O65" s="53" t="s">
         <v>268</v>
       </c>
@@ -5075,7 +5129,7 @@
       <c r="M66" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N66" s="53"/>
+      <c r="N66" s="154"/>
       <c r="O66" s="53" t="s">
         <v>268</v>
       </c>
@@ -5125,7 +5179,7 @@
       <c r="M67" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N67" s="53"/>
+      <c r="N67" s="154"/>
       <c r="O67" s="53" t="s">
         <v>268</v>
       </c>
@@ -5175,7 +5229,7 @@
       <c r="M68" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N68" s="53"/>
+      <c r="N68" s="154"/>
       <c r="O68" s="53" t="s">
         <v>268</v>
       </c>
@@ -5225,7 +5279,7 @@
       <c r="M69" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N69" s="53"/>
+      <c r="N69" s="154"/>
       <c r="O69" s="53" t="s">
         <v>268</v>
       </c>
@@ -5275,7 +5329,7 @@
       <c r="M70" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N70" s="53"/>
+      <c r="N70" s="154"/>
       <c r="O70" s="53" t="s">
         <v>268</v>
       </c>
@@ -5325,7 +5379,7 @@
       <c r="M71" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N71" s="53"/>
+      <c r="N71" s="154"/>
       <c r="O71" s="53" t="s">
         <v>268</v>
       </c>
@@ -5375,7 +5429,7 @@
       <c r="M72" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N72" s="53"/>
+      <c r="N72" s="154"/>
       <c r="O72" s="53" t="s">
         <v>268</v>
       </c>
@@ -5425,7 +5479,7 @@
       <c r="M73" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N73" s="53"/>
+      <c r="N73" s="154"/>
       <c r="O73" s="53" t="s">
         <v>268</v>
       </c>
@@ -5475,7 +5529,7 @@
       <c r="M74" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N74" s="53"/>
+      <c r="N74" s="154"/>
       <c r="O74" s="53" t="s">
         <v>268</v>
       </c>
@@ -5525,7 +5579,7 @@
       <c r="M75" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N75" s="53"/>
+      <c r="N75" s="154"/>
       <c r="O75" s="53" t="s">
         <v>268</v>
       </c>
@@ -5575,7 +5629,7 @@
       <c r="M76" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N76" s="53"/>
+      <c r="N76" s="154"/>
       <c r="O76" s="53" t="s">
         <v>268</v>
       </c>
@@ -5625,7 +5679,7 @@
       <c r="M77" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N77" s="53"/>
+      <c r="N77" s="154"/>
       <c r="O77" s="53" t="s">
         <v>268</v>
       </c>
@@ -5675,7 +5729,7 @@
       <c r="M78" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N78" s="53"/>
+      <c r="N78" s="154"/>
       <c r="O78" s="53" t="s">
         <v>268</v>
       </c>
@@ -5723,7 +5777,7 @@
       <c r="M79" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="N79" s="128"/>
+      <c r="N79" s="156"/>
       <c r="O79" s="128" t="s">
         <v>268</v>
       </c>
@@ -5773,7 +5827,7 @@
       <c r="M80" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N80" s="53"/>
+      <c r="N80" s="154"/>
       <c r="O80" s="53" t="s">
         <v>268</v>
       </c>
@@ -5787,7 +5841,7 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
+    <row r="81" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
       <c r="A81" s="120" t="s">
         <v>300</v>
       </c>
@@ -5823,7 +5877,7 @@
       <c r="M81" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N81" s="53"/>
+      <c r="N81" s="154"/>
       <c r="O81" s="53" t="s">
         <v>268</v>
       </c>
@@ -5837,7 +5891,7 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
+    <row r="82" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
       <c r="A82" s="120" t="s">
         <v>301</v>
       </c>
@@ -5873,7 +5927,7 @@
       <c r="M82" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N82" s="53"/>
+      <c r="N82" s="154"/>
       <c r="O82" s="53" t="s">
         <v>268</v>
       </c>
@@ -5887,7 +5941,7 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
+    <row r="83" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
       <c r="A83" s="120" t="s">
         <v>302</v>
       </c>
@@ -5923,7 +5977,7 @@
       <c r="M83" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N83" s="53"/>
+      <c r="N83" s="154"/>
       <c r="O83" s="53" t="s">
         <v>268</v>
       </c>
@@ -5937,7 +5991,7 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
+    <row r="84" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
       <c r="A84" s="120" t="s">
         <v>303</v>
       </c>
@@ -5973,7 +6027,7 @@
       <c r="M84" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N84" s="53"/>
+      <c r="N84" s="154"/>
       <c r="O84" s="53" t="s">
         <v>268</v>
       </c>
@@ -5987,7 +6041,7 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
+    <row r="85" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
       <c r="A85" s="120" t="s">
         <v>304</v>
       </c>
@@ -6023,7 +6077,7 @@
       <c r="M85" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N85" s="53"/>
+      <c r="N85" s="154"/>
       <c r="O85" s="53" t="s">
         <v>268</v>
       </c>
@@ -6037,7 +6091,7 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
+    <row r="86" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
       <c r="A86" s="120" t="s">
         <v>305</v>
       </c>
@@ -6073,7 +6127,7 @@
       <c r="M86" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N86" s="53"/>
+      <c r="N86" s="154"/>
       <c r="O86" s="53" t="s">
         <v>268</v>
       </c>
@@ -6087,7 +6141,7 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
+    <row r="87" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
       <c r="A87" s="120"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
@@ -6101,7 +6155,7 @@
       <c r="K87" s="51"/>
       <c r="L87" s="53"/>
       <c r="M87" s="53"/>
-      <c r="N87" s="53"/>
+      <c r="N87" s="154"/>
       <c r="O87" s="53"/>
       <c r="P87" s="57" t="s">
         <v>201</v>
@@ -6109,20 +6163,20 @@
       <c r="Q87" s="52"/>
       <c r="R87" s="51"/>
     </row>
-    <row r="88" spans="1:18" s="144" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="88" spans="1:22" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A88" s="119" t="s">
         <v>328</v>
       </c>
-      <c r="D88" s="145" t="s">
+      <c r="D88" s="132" t="s">
         <v>329</v>
       </c>
-      <c r="E88" s="146" t="s">
+      <c r="E88" s="133" t="s">
         <v>330</v>
       </c>
-      <c r="F88" s="147" t="s">
+      <c r="F88" s="134" t="s">
         <v>197</v>
       </c>
-      <c r="G88" s="147" t="s">
+      <c r="G88" s="134" t="s">
         <v>196</v>
       </c>
       <c r="H88" s="51" t="s">
@@ -6134,37 +6188,108 @@
       <c r="J88" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="K88" s="144" t="s">
+      <c r="K88" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="L88" s="148" t="s">
+      <c r="L88" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="M88" s="148" t="s">
+      <c r="M88" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="N88" s="148"/>
-      <c r="O88" s="148" t="s">
+      <c r="N88" s="157"/>
+      <c r="O88" s="135" t="s">
         <v>268</v>
       </c>
       <c r="P88" s="74" t="s">
-        <v>54</v>
+        <v>339</v>
       </c>
       <c r="Q88" s="74" t="s">
         <v>324</v>
       </c>
-      <c r="R88" s="144">
+      <c r="R88" s="131">
         <v>201480</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" ht="15.75" customHeight="1"/>
-    <row r="90" spans="1:18" ht="15.75" customHeight="1"/>
-    <row r="91" spans="1:18" ht="15.75" customHeight="1"/>
-    <row r="92" spans="1:18" ht="15.75" customHeight="1"/>
-    <row r="93" spans="1:18" ht="15.75" customHeight="1"/>
-    <row r="94" spans="1:18" ht="15.75" customHeight="1"/>
-    <row r="95" spans="1:18" ht="15.75" customHeight="1"/>
-    <row r="96" spans="1:18" ht="15.75" customHeight="1"/>
+      <c r="S88" s="131">
+        <v>1000</v>
+      </c>
+      <c r="T88" s="131">
+        <v>2</v>
+      </c>
+      <c r="U88" s="131">
+        <v>4</v>
+      </c>
+      <c r="V88" s="74" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A89" s="119" t="s">
+        <v>336</v>
+      </c>
+      <c r="D89" s="132" t="s">
+        <v>337</v>
+      </c>
+      <c r="E89" s="133" t="s">
+        <v>338</v>
+      </c>
+      <c r="F89" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="G89" s="134" t="s">
+        <v>196</v>
+      </c>
+      <c r="H89" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I89" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="J89" s="74" t="s">
+        <v>264</v>
+      </c>
+      <c r="K89" s="131" t="s">
+        <v>36</v>
+      </c>
+      <c r="L89" s="135" t="s">
+        <v>25</v>
+      </c>
+      <c r="M89" s="135" t="s">
+        <v>82</v>
+      </c>
+      <c r="N89" s="157"/>
+      <c r="O89" s="135" t="s">
+        <v>268</v>
+      </c>
+      <c r="P89" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q89" s="74" t="s">
+        <v>324</v>
+      </c>
+      <c r="R89" s="131">
+        <v>201480</v>
+      </c>
+      <c r="S89" s="131">
+        <v>1000</v>
+      </c>
+      <c r="T89" s="131">
+        <v>1</v>
+      </c>
+      <c r="U89" s="131">
+        <v>1</v>
+      </c>
+      <c r="V89" s="74" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="91" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="92" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="93" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="94" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="95" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="96" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>
     <row r="99" ht="15.75" customHeight="1"/>
@@ -7072,8 +7197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y987"/>
   <sheetViews>
-    <sheetView topLeftCell="L64" workbookViewId="0">
-      <selection activeCell="U94" sqref="U94"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9060,15 +9185,15 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="130"/>
-      <c r="B33" s="136" t="s">
+      <c r="A33" s="129"/>
+      <c r="B33" s="140" t="s">
         <v>229</v>
       </c>
-      <c r="C33" s="137"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="137"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="137"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
       <c r="H33" s="59"/>
       <c r="I33" s="59"/>
       <c r="J33" s="59"/>
@@ -9908,17 +10033,17 @@
       </c>
     </row>
     <row r="48" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A48" s="130"/>
-      <c r="B48" s="138" t="s">
+      <c r="A48" s="129"/>
+      <c r="B48" s="142" t="s">
         <v>204</v>
       </c>
-      <c r="C48" s="139"/>
-      <c r="D48" s="139"/>
-      <c r="E48" s="139"/>
-      <c r="F48" s="139"/>
-      <c r="G48" s="139"/>
-      <c r="H48" s="139"/>
-      <c r="I48" s="139"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="143"/>
+      <c r="E48" s="143"/>
+      <c r="F48" s="143"/>
+      <c r="G48" s="143"/>
+      <c r="H48" s="143"/>
+      <c r="I48" s="143"/>
       <c r="J48" s="59"/>
       <c r="K48" s="59"/>
       <c r="L48" s="59"/>
@@ -10723,16 +10848,16 @@
       </c>
     </row>
     <row r="64" spans="1:22" s="101" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A64" s="131"/>
-      <c r="B64" s="135" t="s">
+      <c r="A64" s="130"/>
+      <c r="B64" s="139" t="s">
         <v>260</v>
       </c>
-      <c r="C64" s="135"/>
-      <c r="D64" s="135"/>
-      <c r="E64" s="135"/>
-      <c r="F64" s="135"/>
-      <c r="G64" s="135"/>
-      <c r="H64" s="135"/>
+      <c r="C64" s="139"/>
+      <c r="D64" s="139"/>
+      <c r="E64" s="139"/>
+      <c r="F64" s="139"/>
+      <c r="G64" s="139"/>
+      <c r="H64" s="139"/>
       <c r="T64" s="57" t="s">
         <v>201</v>
       </c>
@@ -12334,7 +12459,7 @@
         <v>1</v>
       </c>
       <c r="T90" s="57" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="U90" s="55" t="s">
         <v>324</v>
@@ -12343,8 +12468,69 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A91" s="1"/>
+    <row r="91" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A91" s="120" t="s">
+        <v>336</v>
+      </c>
+      <c r="B91" s="55"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="E91" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="F91" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G91" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="H91" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="I91" s="67">
+        <v>12230</v>
+      </c>
+      <c r="J91" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="K91" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="L91" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="M91" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="N91" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="O91" s="67">
+        <v>100000000</v>
+      </c>
+      <c r="P91" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q91" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="R91" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="S91" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="T91" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="U91" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="V91" s="67">
+        <v>201480</v>
+      </c>
     </row>
     <row r="92" spans="1:22" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
@@ -15050,7 +15236,7 @@
   <dimension ref="A1:R990"/>
   <sheetViews>
     <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N65" sqref="N65:N90"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -16659,14 +16845,14 @@
     </row>
     <row r="33" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="73"/>
-      <c r="B33" s="140" t="s">
+      <c r="B33" s="144" t="s">
         <v>236</v>
       </c>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="144"/>
       <c r="H33" s="57"/>
       <c r="I33" s="57"/>
       <c r="J33" s="57"/>
@@ -17358,14 +17544,14 @@
     </row>
     <row r="49" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
       <c r="A49" s="73"/>
-      <c r="B49" s="132" t="s">
+      <c r="B49" s="136" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="132"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="132"/>
-      <c r="F49" s="132"/>
-      <c r="G49" s="132"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
       <c r="H49" s="57"/>
       <c r="I49" s="57"/>
       <c r="J49" s="57"/>
@@ -18027,15 +18213,15 @@
     </row>
     <row r="65" spans="1:18" s="101" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A65" s="102"/>
-      <c r="B65" s="135" t="s">
+      <c r="B65" s="139" t="s">
         <v>260</v>
       </c>
-      <c r="C65" s="135"/>
-      <c r="D65" s="135"/>
-      <c r="E65" s="135"/>
-      <c r="F65" s="135"/>
-      <c r="G65" s="135"/>
-      <c r="H65" s="135"/>
+      <c r="C65" s="139"/>
+      <c r="D65" s="139"/>
+      <c r="E65" s="139"/>
+      <c r="F65" s="139"/>
+      <c r="G65" s="139"/>
+      <c r="H65" s="139"/>
       <c r="N65" s="72" t="s">
         <v>201</v>
       </c>
@@ -19336,7 +19522,7 @@
         <v>65</v>
       </c>
       <c r="N91" s="54" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="O91" s="114" t="s">
         <v>61</v>
@@ -19351,25 +19537,57 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A92" s="119"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="105"/>
-      <c r="G92" s="105"/>
-      <c r="H92" s="55"/>
-      <c r="I92" s="55"/>
-      <c r="J92" s="77"/>
-      <c r="K92" s="53"/>
-      <c r="L92" s="53"/>
-      <c r="M92" s="71"/>
-      <c r="N92" s="72"/>
-      <c r="O92" s="55"/>
-      <c r="P92" s="55"/>
-      <c r="Q92" s="55"/>
-      <c r="R92" s="51"/>
+    <row r="92" spans="1:18" s="52" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A92" s="121" t="s">
+        <v>336</v>
+      </c>
+      <c r="B92" s="114"/>
+      <c r="C92" s="114"/>
+      <c r="D92" s="114" t="s">
+        <v>340</v>
+      </c>
+      <c r="E92" s="114" t="s">
+        <v>340</v>
+      </c>
+      <c r="F92" s="122" t="s">
+        <v>337</v>
+      </c>
+      <c r="G92" s="122" t="s">
+        <v>337</v>
+      </c>
+      <c r="H92" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="I92" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="J92" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="K92" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="L92" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="M92" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="N92" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="O92" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="P92" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q92" s="114" t="s">
+        <v>324</v>
+      </c>
+      <c r="R92" s="51">
+        <v>201480</v>
+      </c>
     </row>
     <row r="93" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
       <c r="A93" s="119"/>
@@ -23074,8 +23292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -24362,14 +24580,14 @@
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="59"/>
-      <c r="B33" s="132" t="s">
+      <c r="B33" s="136" t="s">
         <v>229</v>
       </c>
-      <c r="C33" s="133"/>
-      <c r="D33" s="133"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="133"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="137"/>
       <c r="H33" s="91" t="s">
         <v>201</v>
       </c>
@@ -24867,14 +25085,14 @@
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A47" s="59"/>
-      <c r="B47" s="132" t="s">
+      <c r="B47" s="136" t="s">
         <v>204</v>
       </c>
-      <c r="C47" s="133"/>
-      <c r="D47" s="133"/>
-      <c r="E47" s="133"/>
-      <c r="F47" s="133"/>
-      <c r="G47" s="133"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="137"/>
       <c r="H47" s="91" t="s">
         <v>201</v>
       </c>
@@ -25382,13 +25600,13 @@
     </row>
     <row r="63" spans="1:14" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A63" s="109"/>
-      <c r="B63" s="141" t="s">
+      <c r="B63" s="145" t="s">
         <v>260</v>
       </c>
-      <c r="C63" s="142"/>
-      <c r="D63" s="142"/>
-      <c r="E63" s="142"/>
-      <c r="F63" s="143"/>
+      <c r="C63" s="146"/>
+      <c r="D63" s="146"/>
+      <c r="E63" s="146"/>
+      <c r="F63" s="147"/>
       <c r="G63" s="110"/>
       <c r="H63" s="91" t="s">
         <v>201</v>
@@ -26378,7 +26596,7 @@
         <v>330</v>
       </c>
       <c r="H89" s="106" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="I89" s="107">
         <v>1</v>
@@ -26399,7 +26617,46 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="90" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A90" s="121" t="s">
+        <v>336</v>
+      </c>
+      <c r="B90" s="104"/>
+      <c r="C90" s="104"/>
+      <c r="D90" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="E90" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="F90" s="122" t="s">
+        <v>337</v>
+      </c>
+      <c r="G90" s="104" t="s">
+        <v>338</v>
+      </c>
+      <c r="H90" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="I90" s="107">
+        <v>1</v>
+      </c>
+      <c r="J90" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="K90" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="L90" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="M90" s="104" t="s">
+        <v>324</v>
+      </c>
+      <c r="N90" s="51">
+        <v>201480</v>
+      </c>
+    </row>
     <row r="91" spans="1:14" ht="15.75" customHeight="1"/>
     <row r="92" spans="1:14" ht="15.75" customHeight="1"/>
     <row r="93" spans="1:14" ht="15.75" customHeight="1"/>

--- a/src/main/resources/dataCreate/DataCreate_SRAT.xlsx
+++ b/src/main/resources/dataCreate/DataCreate_SRAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="5880" windowWidth="15375" windowHeight="7875" activeTab="1"/>
+    <workbookView xWindow="5310" yWindow="6780" windowWidth="15375" windowHeight="7875" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4296" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4632" uniqueCount="357">
   <si>
     <t>Reference_TcID</t>
   </si>
@@ -1035,16 +1035,64 @@
     <t>6624170</t>
   </si>
   <si>
-    <t>Reg2ndRevEx4170</t>
-  </si>
-  <si>
-    <t>Reg2ndRevExSp4170</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>AutoPopulateRA</t>
+    <t>Reg2ndEx6624170</t>
+  </si>
+  <si>
+    <t>Reg2ndExSp6624170</t>
+  </si>
+  <si>
+    <t>6624171</t>
+  </si>
+  <si>
+    <t>Reg2ndEx6624171</t>
+  </si>
+  <si>
+    <t>Reg2ndExSp6624171</t>
+  </si>
+  <si>
+    <t>6624172</t>
+  </si>
+  <si>
+    <t>Reg2ndEx6624172</t>
+  </si>
+  <si>
+    <t>Reg2ndExSp6624172</t>
+  </si>
+  <si>
+    <t>6624173</t>
+  </si>
+  <si>
+    <t>Reg2ndEx6624173</t>
+  </si>
+  <si>
+    <t>Reg2ndExSp6624173</t>
+  </si>
+  <si>
+    <t>6624174</t>
+  </si>
+  <si>
+    <t>Reg2ndEx6624174</t>
+  </si>
+  <si>
+    <t>Reg2ndExSp6624174</t>
+  </si>
+  <si>
+    <t>6624175</t>
+  </si>
+  <si>
+    <t>Reg2ndEx6624175</t>
+  </si>
+  <si>
+    <t>Reg2ndExSp6624175</t>
+  </si>
+  <si>
+    <t>6624176</t>
+  </si>
+  <si>
+    <t>Reg2ndEx6624176</t>
+  </si>
+  <si>
+    <t>Reg2ndExSp6624176</t>
   </si>
 </sst>
 </file>
@@ -1640,7 +1688,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1665,9 +1712,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1691,13 +1735,17 @@
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1734,18 +1782,26 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2063,8 +2119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA988"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2080,8 +2136,8 @@
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
     <col min="10" max="11" width="21.28515625" customWidth="1"/>
     <col min="12" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="155" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="136" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" customWidth="1"/>
     <col min="17" max="17" width="18.42578125" customWidth="1"/>
     <col min="18" max="18" width="8.7109375" customWidth="1"/>
@@ -2129,7 +2185,7 @@
       <c r="L1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="148" t="s">
+      <c r="M1" s="129" t="s">
         <v>43</v>
       </c>
       <c r="N1" s="9" t="s">
@@ -2200,7 +2256,7 @@
       <c r="M2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="151"/>
+      <c r="N2" s="132"/>
       <c r="O2" s="25" t="s">
         <v>50</v>
       </c>
@@ -2249,7 +2305,7 @@
       <c r="M3" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="151"/>
+      <c r="N3" s="132"/>
       <c r="O3" s="25" t="s">
         <v>50</v>
       </c>
@@ -2298,7 +2354,7 @@
       <c r="M4" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="151"/>
+      <c r="N4" s="132"/>
       <c r="O4" s="25" t="s">
         <v>50</v>
       </c>
@@ -2347,7 +2403,7 @@
       <c r="M5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="151"/>
+      <c r="N5" s="132"/>
       <c r="O5" s="25" t="s">
         <v>50</v>
       </c>
@@ -2396,7 +2452,7 @@
       <c r="M6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="151"/>
+      <c r="N6" s="132"/>
       <c r="O6" s="25" t="s">
         <v>50</v>
       </c>
@@ -2445,7 +2501,7 @@
       <c r="M7" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="151"/>
+      <c r="N7" s="132"/>
       <c r="O7" s="25" t="s">
         <v>50</v>
       </c>
@@ -2494,7 +2550,7 @@
       <c r="M8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="151"/>
+      <c r="N8" s="132"/>
       <c r="O8" s="25" t="s">
         <v>50</v>
       </c>
@@ -2543,7 +2599,7 @@
       <c r="M9" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="151"/>
+      <c r="N9" s="132"/>
       <c r="O9" s="25" t="s">
         <v>50</v>
       </c>
@@ -2592,7 +2648,7 @@
       <c r="M10" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="151"/>
+      <c r="N10" s="132"/>
       <c r="O10" s="25" t="s">
         <v>50</v>
       </c>
@@ -2640,7 +2696,7 @@
       <c r="M11" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="151"/>
+      <c r="N11" s="132"/>
       <c r="O11" s="25" t="s">
         <v>50</v>
       </c>
@@ -2689,7 +2745,7 @@
       <c r="M12" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N12" s="152"/>
+      <c r="N12" s="133"/>
       <c r="O12" s="11" t="s">
         <v>50</v>
       </c>
@@ -2738,7 +2794,7 @@
       <c r="M13" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N13" s="152"/>
+      <c r="N13" s="133"/>
       <c r="O13" s="11" t="s">
         <v>50</v>
       </c>
@@ -2787,7 +2843,7 @@
       <c r="M14" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="152"/>
+      <c r="N14" s="133"/>
       <c r="O14" s="11" t="s">
         <v>50</v>
       </c>
@@ -2836,7 +2892,7 @@
       <c r="M15" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="152"/>
+      <c r="N15" s="133"/>
       <c r="O15" s="11" t="s">
         <v>50</v>
       </c>
@@ -2885,7 +2941,7 @@
       <c r="M16" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N16" s="152"/>
+      <c r="N16" s="133"/>
       <c r="O16" s="11" t="s">
         <v>50</v>
       </c>
@@ -2934,7 +2990,7 @@
       <c r="M17" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N17" s="152"/>
+      <c r="N17" s="133"/>
       <c r="O17" s="11" t="s">
         <v>50</v>
       </c>
@@ -2983,7 +3039,7 @@
       <c r="M18" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N18" s="152"/>
+      <c r="N18" s="133"/>
       <c r="O18" s="11" t="s">
         <v>50</v>
       </c>
@@ -3032,7 +3088,7 @@
       <c r="M19" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="152"/>
+      <c r="N19" s="133"/>
       <c r="O19" s="11" t="s">
         <v>50</v>
       </c>
@@ -3081,7 +3137,7 @@
       <c r="M20" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N20" s="152"/>
+      <c r="N20" s="133"/>
       <c r="O20" s="11" t="s">
         <v>50</v>
       </c>
@@ -3129,7 +3185,7 @@
       <c r="M21" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N21" s="152"/>
+      <c r="N21" s="133"/>
       <c r="O21" s="11" t="s">
         <v>50</v>
       </c>
@@ -3176,11 +3232,11 @@
       <c r="L22" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="M22" s="149" t="s">
+      <c r="M22" s="130" t="s">
         <v>85</v>
       </c>
       <c r="N22" s="34"/>
-      <c r="O22" s="150" t="s">
+      <c r="O22" s="131" t="s">
         <v>50</v>
       </c>
       <c r="P22" s="57" t="s">
@@ -3226,11 +3282,11 @@
       <c r="L23" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="M23" s="149" t="s">
+      <c r="M23" s="130" t="s">
         <v>85</v>
       </c>
       <c r="N23" s="34"/>
-      <c r="O23" s="150" t="s">
+      <c r="O23" s="131" t="s">
         <v>50</v>
       </c>
       <c r="P23" s="57" t="s">
@@ -3276,11 +3332,11 @@
       <c r="L24" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="M24" s="149" t="s">
+      <c r="M24" s="130" t="s">
         <v>85</v>
       </c>
       <c r="N24" s="34"/>
-      <c r="O24" s="150" t="s">
+      <c r="O24" s="131" t="s">
         <v>50</v>
       </c>
       <c r="P24" s="57" t="s">
@@ -3326,11 +3382,11 @@
       <c r="L25" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="M25" s="149" t="s">
+      <c r="M25" s="130" t="s">
         <v>85</v>
       </c>
       <c r="N25" s="34"/>
-      <c r="O25" s="150" t="s">
+      <c r="O25" s="131" t="s">
         <v>50</v>
       </c>
       <c r="P25" s="57" t="s">
@@ -3376,11 +3432,11 @@
       <c r="L26" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="M26" s="149" t="s">
+      <c r="M26" s="130" t="s">
         <v>85</v>
       </c>
       <c r="N26" s="34"/>
-      <c r="O26" s="150" t="s">
+      <c r="O26" s="131" t="s">
         <v>50</v>
       </c>
       <c r="P26" s="57" t="s">
@@ -3426,11 +3482,11 @@
       <c r="L27" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="M27" s="149" t="s">
+      <c r="M27" s="130" t="s">
         <v>85</v>
       </c>
       <c r="N27" s="34"/>
-      <c r="O27" s="150" t="s">
+      <c r="O27" s="131" t="s">
         <v>50</v>
       </c>
       <c r="P27" s="57" t="s">
@@ -3476,11 +3532,11 @@
       <c r="L28" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="M28" s="149" t="s">
+      <c r="M28" s="130" t="s">
         <v>85</v>
       </c>
       <c r="N28" s="34"/>
-      <c r="O28" s="150" t="s">
+      <c r="O28" s="131" t="s">
         <v>50</v>
       </c>
       <c r="P28" s="57" t="s">
@@ -3526,11 +3582,11 @@
       <c r="L29" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="M29" s="149" t="s">
+      <c r="M29" s="130" t="s">
         <v>85</v>
       </c>
       <c r="N29" s="34"/>
-      <c r="O29" s="150" t="s">
+      <c r="O29" s="131" t="s">
         <v>50</v>
       </c>
       <c r="P29" s="57" t="s">
@@ -3576,11 +3632,11 @@
       <c r="L30" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="M30" s="149" t="s">
+      <c r="M30" s="130" t="s">
         <v>85</v>
       </c>
       <c r="N30" s="34"/>
-      <c r="O30" s="150" t="s">
+      <c r="O30" s="131" t="s">
         <v>50</v>
       </c>
       <c r="P30" s="57" t="s">
@@ -3626,11 +3682,11 @@
       <c r="L31" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="M31" s="149" t="s">
+      <c r="M31" s="130" t="s">
         <v>85</v>
       </c>
       <c r="N31" s="34"/>
-      <c r="O31" s="150" t="s">
+      <c r="O31" s="131" t="s">
         <v>50</v>
       </c>
       <c r="P31" s="57" t="s">
@@ -3644,22 +3700,22 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A32" s="112"/>
-      <c r="B32" s="136" t="s">
+      <c r="A32" s="111"/>
+      <c r="B32" s="138" t="s">
         <v>229</v>
       </c>
-      <c r="C32" s="137"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="139"/>
       <c r="H32" s="59"/>
       <c r="I32" s="59"/>
       <c r="J32" s="59"/>
       <c r="K32" s="59"/>
       <c r="L32" s="59"/>
       <c r="M32" s="59"/>
-      <c r="N32" s="153"/>
+      <c r="N32" s="134"/>
       <c r="O32" s="59"/>
       <c r="P32" s="57" t="s">
         <v>201</v>
@@ -3703,7 +3759,7 @@
       <c r="M33" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="N33" s="154"/>
+      <c r="N33" s="135"/>
       <c r="O33" s="53" t="s">
         <v>50</v>
       </c>
@@ -3753,7 +3809,7 @@
       <c r="M34" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="N34" s="154"/>
+      <c r="N34" s="135"/>
       <c r="O34" s="53" t="s">
         <v>50</v>
       </c>
@@ -3803,7 +3859,7 @@
       <c r="M35" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="N35" s="154"/>
+      <c r="N35" s="135"/>
       <c r="O35" s="53" t="s">
         <v>50</v>
       </c>
@@ -3853,7 +3909,7 @@
       <c r="M36" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="N36" s="154"/>
+      <c r="N36" s="135"/>
       <c r="O36" s="53" t="s">
         <v>50</v>
       </c>
@@ -3881,7 +3937,7 @@
       <c r="K37" s="22"/>
       <c r="L37" s="25"/>
       <c r="M37" s="25"/>
-      <c r="N37" s="151"/>
+      <c r="N37" s="132"/>
       <c r="O37" s="25"/>
       <c r="P37" s="57" t="s">
         <v>201</v>
@@ -3925,7 +3981,7 @@
       <c r="M38" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N38" s="154"/>
+      <c r="N38" s="135"/>
       <c r="O38" s="53" t="s">
         <v>50</v>
       </c>
@@ -3975,7 +4031,7 @@
       <c r="M39" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N39" s="154"/>
+      <c r="N39" s="135"/>
       <c r="O39" s="53" t="s">
         <v>50</v>
       </c>
@@ -4025,7 +4081,7 @@
       <c r="M40" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N40" s="154"/>
+      <c r="N40" s="135"/>
       <c r="O40" s="53" t="s">
         <v>50</v>
       </c>
@@ -4075,7 +4131,7 @@
       <c r="M41" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N41" s="154"/>
+      <c r="N41" s="135"/>
       <c r="O41" s="53" t="s">
         <v>50</v>
       </c>
@@ -4125,7 +4181,7 @@
       <c r="M42" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="N42" s="154"/>
+      <c r="N42" s="135"/>
       <c r="O42" s="53" t="s">
         <v>50</v>
       </c>
@@ -4175,7 +4231,7 @@
       <c r="M43" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="N43" s="154"/>
+      <c r="N43" s="135"/>
       <c r="O43" s="53" t="s">
         <v>50</v>
       </c>
@@ -4225,7 +4281,7 @@
       <c r="M44" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="N44" s="154"/>
+      <c r="N44" s="135"/>
       <c r="O44" s="53" t="s">
         <v>50</v>
       </c>
@@ -4275,7 +4331,7 @@
       <c r="M45" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="N45" s="154"/>
+      <c r="N45" s="135"/>
       <c r="O45" s="53" t="s">
         <v>50</v>
       </c>
@@ -4290,22 +4346,22 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A46" s="112"/>
-      <c r="B46" s="136" t="s">
+      <c r="A46" s="111"/>
+      <c r="B46" s="138" t="s">
         <v>204</v>
       </c>
-      <c r="C46" s="137"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
+      <c r="C46" s="139"/>
+      <c r="D46" s="139"/>
+      <c r="E46" s="139"/>
+      <c r="F46" s="139"/>
+      <c r="G46" s="139"/>
       <c r="H46" s="59"/>
       <c r="I46" s="59"/>
       <c r="J46" s="59"/>
       <c r="K46" s="59"/>
       <c r="L46" s="59"/>
       <c r="M46" s="59"/>
-      <c r="N46" s="153"/>
+      <c r="N46" s="134"/>
       <c r="O46" s="59"/>
       <c r="P46" s="57" t="s">
         <v>201</v>
@@ -4349,7 +4405,7 @@
       <c r="M47" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="N47" s="154"/>
+      <c r="N47" s="135"/>
       <c r="O47" s="53" t="s">
         <v>50</v>
       </c>
@@ -4399,7 +4455,7 @@
       <c r="M48" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="N48" s="154"/>
+      <c r="N48" s="135"/>
       <c r="O48" s="53" t="s">
         <v>50</v>
       </c>
@@ -4449,7 +4505,7 @@
       <c r="M49" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="N49" s="154"/>
+      <c r="N49" s="135"/>
       <c r="O49" s="53" t="s">
         <v>50</v>
       </c>
@@ -4499,7 +4555,7 @@
       <c r="M50" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="N50" s="154"/>
+      <c r="N50" s="135"/>
       <c r="O50" s="53" t="s">
         <v>50</v>
       </c>
@@ -4554,7 +4610,7 @@
       <c r="M52" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N52" s="154"/>
+      <c r="N52" s="135"/>
       <c r="O52" s="53" t="s">
         <v>50</v>
       </c>
@@ -4604,7 +4660,7 @@
       <c r="M53" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N53" s="154"/>
+      <c r="N53" s="135"/>
       <c r="O53" s="53" t="s">
         <v>50</v>
       </c>
@@ -4654,7 +4710,7 @@
       <c r="M54" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="154"/>
+      <c r="N54" s="135"/>
       <c r="O54" s="53" t="s">
         <v>50</v>
       </c>
@@ -4704,7 +4760,7 @@
       <c r="M55" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N55" s="154"/>
+      <c r="N55" s="135"/>
       <c r="O55" s="53" t="s">
         <v>50</v>
       </c>
@@ -4759,7 +4815,7 @@
       <c r="M57" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="N57" s="154"/>
+      <c r="N57" s="135"/>
       <c r="O57" s="53" t="s">
         <v>50</v>
       </c>
@@ -4809,7 +4865,7 @@
       <c r="M58" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="N58" s="154"/>
+      <c r="N58" s="135"/>
       <c r="O58" s="53" t="s">
         <v>50</v>
       </c>
@@ -4859,7 +4915,7 @@
       <c r="M59" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="N59" s="154"/>
+      <c r="N59" s="135"/>
       <c r="O59" s="53" t="s">
         <v>50</v>
       </c>
@@ -4909,7 +4965,7 @@
       <c r="M60" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="N60" s="154"/>
+      <c r="N60" s="135"/>
       <c r="O60" s="53" t="s">
         <v>50</v>
       </c>
@@ -4929,15 +4985,15 @@
       </c>
     </row>
     <row r="62" spans="1:18" s="101" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A62" s="110"/>
-      <c r="B62" s="138" t="s">
+      <c r="A62" s="109"/>
+      <c r="B62" s="140" t="s">
         <v>259</v>
       </c>
-      <c r="C62" s="139"/>
-      <c r="D62" s="139"/>
-      <c r="E62" s="139"/>
-      <c r="F62" s="139"/>
-      <c r="G62" s="139"/>
+      <c r="C62" s="141"/>
+      <c r="D62" s="141"/>
+      <c r="E62" s="141"/>
+      <c r="F62" s="141"/>
+      <c r="G62" s="141"/>
       <c r="N62" s="100"/>
       <c r="P62" s="57" t="s">
         <v>201</v>
@@ -4949,7 +5005,7 @@
       </c>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
-      <c r="D63" s="114" t="s">
+      <c r="D63" s="113" t="s">
         <v>261</v>
       </c>
       <c r="E63" s="104" t="s">
@@ -4979,7 +5035,7 @@
       <c r="M63" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N63" s="154"/>
+      <c r="N63" s="135"/>
       <c r="O63" s="53" t="s">
         <v>268</v>
       </c>
@@ -4999,7 +5055,7 @@
       </c>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
-      <c r="D64" s="114" t="s">
+      <c r="D64" s="113" t="s">
         <v>326</v>
       </c>
       <c r="E64" s="104" t="s">
@@ -5029,7 +5085,7 @@
       <c r="M64" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N64" s="154"/>
+      <c r="N64" s="135"/>
       <c r="O64" s="53" t="s">
         <v>268</v>
       </c>
@@ -5079,7 +5135,7 @@
       <c r="M65" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N65" s="154"/>
+      <c r="N65" s="135"/>
       <c r="O65" s="53" t="s">
         <v>268</v>
       </c>
@@ -5129,7 +5185,7 @@
       <c r="M66" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N66" s="154"/>
+      <c r="N66" s="135"/>
       <c r="O66" s="53" t="s">
         <v>268</v>
       </c>
@@ -5179,7 +5235,7 @@
       <c r="M67" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N67" s="154"/>
+      <c r="N67" s="135"/>
       <c r="O67" s="53" t="s">
         <v>268</v>
       </c>
@@ -5194,7 +5250,7 @@
       </c>
     </row>
     <row r="68" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A68" s="111">
+      <c r="A68" s="110">
         <v>6624140</v>
       </c>
       <c r="B68" s="51"/>
@@ -5229,7 +5285,7 @@
       <c r="M68" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N68" s="154"/>
+      <c r="N68" s="135"/>
       <c r="O68" s="53" t="s">
         <v>268</v>
       </c>
@@ -5244,7 +5300,7 @@
       </c>
     </row>
     <row r="69" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A69" s="111">
+      <c r="A69" s="110">
         <v>6624141</v>
       </c>
       <c r="B69" s="51"/>
@@ -5279,7 +5335,7 @@
       <c r="M69" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N69" s="154"/>
+      <c r="N69" s="135"/>
       <c r="O69" s="53" t="s">
         <v>268</v>
       </c>
@@ -5294,7 +5350,7 @@
       </c>
     </row>
     <row r="70" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A70" s="111">
+      <c r="A70" s="110">
         <v>6624142</v>
       </c>
       <c r="B70" s="51"/>
@@ -5329,7 +5385,7 @@
       <c r="M70" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N70" s="154"/>
+      <c r="N70" s="135"/>
       <c r="O70" s="53" t="s">
         <v>268</v>
       </c>
@@ -5344,7 +5400,7 @@
       </c>
     </row>
     <row r="71" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A71" s="111">
+      <c r="A71" s="110">
         <v>6624158</v>
       </c>
       <c r="B71" s="51"/>
@@ -5379,7 +5435,7 @@
       <c r="M71" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N71" s="154"/>
+      <c r="N71" s="135"/>
       <c r="O71" s="53" t="s">
         <v>268</v>
       </c>
@@ -5394,7 +5450,7 @@
       </c>
     </row>
     <row r="72" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A72" s="111">
+      <c r="A72" s="110">
         <v>6624159</v>
       </c>
       <c r="B72" s="51"/>
@@ -5429,7 +5485,7 @@
       <c r="M72" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N72" s="154"/>
+      <c r="N72" s="135"/>
       <c r="O72" s="53" t="s">
         <v>268</v>
       </c>
@@ -5444,7 +5500,7 @@
       </c>
     </row>
     <row r="73" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A73" s="111">
+      <c r="A73" s="110">
         <v>6624160</v>
       </c>
       <c r="B73" s="51"/>
@@ -5479,7 +5535,7 @@
       <c r="M73" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N73" s="154"/>
+      <c r="N73" s="135"/>
       <c r="O73" s="53" t="s">
         <v>268</v>
       </c>
@@ -5494,7 +5550,7 @@
       </c>
     </row>
     <row r="74" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A74" s="111">
+      <c r="A74" s="110">
         <v>6624162</v>
       </c>
       <c r="B74" s="51"/>
@@ -5529,7 +5585,7 @@
       <c r="M74" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N74" s="154"/>
+      <c r="N74" s="135"/>
       <c r="O74" s="53" t="s">
         <v>268</v>
       </c>
@@ -5544,7 +5600,7 @@
       </c>
     </row>
     <row r="75" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A75" s="111">
+      <c r="A75" s="110">
         <v>6624161</v>
       </c>
       <c r="B75" s="51"/>
@@ -5579,7 +5635,7 @@
       <c r="M75" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N75" s="154"/>
+      <c r="N75" s="135"/>
       <c r="O75" s="53" t="s">
         <v>268</v>
       </c>
@@ -5594,7 +5650,7 @@
       </c>
     </row>
     <row r="76" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A76" s="111">
+      <c r="A76" s="110">
         <v>6624163</v>
       </c>
       <c r="B76" s="51"/>
@@ -5629,7 +5685,7 @@
       <c r="M76" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N76" s="154"/>
+      <c r="N76" s="135"/>
       <c r="O76" s="53" t="s">
         <v>268</v>
       </c>
@@ -5644,7 +5700,7 @@
       </c>
     </row>
     <row r="77" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A77" s="111">
+      <c r="A77" s="110">
         <v>6624164</v>
       </c>
       <c r="B77" s="51"/>
@@ -5679,7 +5735,7 @@
       <c r="M77" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N77" s="154"/>
+      <c r="N77" s="135"/>
       <c r="O77" s="53" t="s">
         <v>268</v>
       </c>
@@ -5694,7 +5750,7 @@
       </c>
     </row>
     <row r="78" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A78" s="111">
+      <c r="A78" s="110">
         <v>6624165</v>
       </c>
       <c r="B78" s="51"/>
@@ -5729,7 +5785,7 @@
       <c r="M78" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N78" s="154"/>
+      <c r="N78" s="135"/>
       <c r="O78" s="53" t="s">
         <v>268</v>
       </c>
@@ -5743,56 +5799,56 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="123" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A79" s="120" t="s">
+    <row r="79" spans="1:18" s="121" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A79" s="118" t="s">
         <v>298</v>
       </c>
-      <c r="D79" s="124" t="s">
+      <c r="D79" s="122" t="s">
         <v>306</v>
       </c>
-      <c r="E79" s="125" t="s">
+      <c r="E79" s="123" t="s">
         <v>314</v>
       </c>
-      <c r="F79" s="126" t="s">
+      <c r="F79" s="124" t="s">
         <v>197</v>
       </c>
-      <c r="G79" s="126" t="s">
+      <c r="G79" s="124" t="s">
         <v>196</v>
       </c>
-      <c r="H79" s="123" t="s">
+      <c r="H79" s="121" t="s">
         <v>322</v>
       </c>
-      <c r="I79" s="127" t="s">
+      <c r="I79" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="J79" s="127" t="s">
+      <c r="J79" s="125" t="s">
         <v>264</v>
       </c>
-      <c r="K79" s="123" t="s">
+      <c r="K79" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="L79" s="128" t="s">
+      <c r="L79" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="M79" s="128" t="s">
+      <c r="M79" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="N79" s="156"/>
-      <c r="O79" s="128" t="s">
+      <c r="N79" s="137"/>
+      <c r="O79" s="126" t="s">
         <v>268</v>
       </c>
       <c r="P79" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="Q79" s="127" t="s">
+      <c r="Q79" s="125" t="s">
         <v>324</v>
       </c>
-      <c r="R79" s="123">
+      <c r="R79" s="121">
         <v>201480</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A80" s="120" t="s">
+      <c r="A80" s="118" t="s">
         <v>299</v>
       </c>
       <c r="B80" s="51"/>
@@ -5827,7 +5883,7 @@
       <c r="M80" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N80" s="154"/>
+      <c r="N80" s="135"/>
       <c r="O80" s="53" t="s">
         <v>268</v>
       </c>
@@ -5842,7 +5898,7 @@
       </c>
     </row>
     <row r="81" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A81" s="120" t="s">
+      <c r="A81" s="118" t="s">
         <v>300</v>
       </c>
       <c r="B81" s="51"/>
@@ -5877,7 +5933,7 @@
       <c r="M81" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N81" s="154"/>
+      <c r="N81" s="135"/>
       <c r="O81" s="53" t="s">
         <v>268</v>
       </c>
@@ -5892,7 +5948,7 @@
       </c>
     </row>
     <row r="82" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A82" s="120" t="s">
+      <c r="A82" s="118" t="s">
         <v>301</v>
       </c>
       <c r="B82" s="51"/>
@@ -5927,7 +5983,7 @@
       <c r="M82" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N82" s="154"/>
+      <c r="N82" s="135"/>
       <c r="O82" s="53" t="s">
         <v>268</v>
       </c>
@@ -5942,7 +5998,7 @@
       </c>
     </row>
     <row r="83" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="120" t="s">
+      <c r="A83" s="118" t="s">
         <v>302</v>
       </c>
       <c r="B83" s="51"/>
@@ -5977,7 +6033,7 @@
       <c r="M83" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N83" s="154"/>
+      <c r="N83" s="135"/>
       <c r="O83" s="53" t="s">
         <v>268</v>
       </c>
@@ -5992,7 +6048,7 @@
       </c>
     </row>
     <row r="84" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A84" s="120" t="s">
+      <c r="A84" s="118" t="s">
         <v>303</v>
       </c>
       <c r="B84" s="51"/>
@@ -6027,7 +6083,7 @@
       <c r="M84" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N84" s="154"/>
+      <c r="N84" s="135"/>
       <c r="O84" s="53" t="s">
         <v>268</v>
       </c>
@@ -6042,7 +6098,7 @@
       </c>
     </row>
     <row r="85" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A85" s="120" t="s">
+      <c r="A85" s="118" t="s">
         <v>304</v>
       </c>
       <c r="B85" s="51"/>
@@ -6077,7 +6133,7 @@
       <c r="M85" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N85" s="154"/>
+      <c r="N85" s="135"/>
       <c r="O85" s="53" t="s">
         <v>268</v>
       </c>
@@ -6092,12 +6148,12 @@
       </c>
     </row>
     <row r="86" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A86" s="120" t="s">
+      <c r="A86" s="118" t="s">
         <v>305</v>
       </c>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
-      <c r="D86" s="122" t="s">
+      <c r="D86" s="120" t="s">
         <v>313</v>
       </c>
       <c r="E86" s="104" t="s">
@@ -6127,7 +6183,7 @@
       <c r="M86" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N86" s="154"/>
+      <c r="N86" s="135"/>
       <c r="O86" s="53" t="s">
         <v>268</v>
       </c>
@@ -6142,10 +6198,10 @@
       </c>
     </row>
     <row r="87" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A87" s="120"/>
+      <c r="A87" s="118"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
-      <c r="D87" s="122"/>
+      <c r="D87" s="120"/>
       <c r="E87" s="104"/>
       <c r="F87" s="18"/>
       <c r="G87" s="18"/>
@@ -6155,7 +6211,7 @@
       <c r="K87" s="51"/>
       <c r="L87" s="53"/>
       <c r="M87" s="53"/>
-      <c r="N87" s="154"/>
+      <c r="N87" s="135"/>
       <c r="O87" s="53"/>
       <c r="P87" s="57" t="s">
         <v>201</v>
@@ -6163,132 +6219,486 @@
       <c r="Q87" s="52"/>
       <c r="R87" s="51"/>
     </row>
-    <row r="88" spans="1:22" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A88" s="119" t="s">
+    <row r="88" spans="1:22" s="121" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A88" s="118" t="s">
         <v>328</v>
       </c>
-      <c r="D88" s="132" t="s">
+      <c r="D88" s="122" t="s">
         <v>329</v>
       </c>
-      <c r="E88" s="133" t="s">
+      <c r="E88" s="123" t="s">
         <v>330</v>
       </c>
-      <c r="F88" s="134" t="s">
+      <c r="F88" s="124" t="s">
         <v>197</v>
       </c>
-      <c r="G88" s="134" t="s">
+      <c r="G88" s="124" t="s">
         <v>196</v>
       </c>
-      <c r="H88" s="51" t="s">
+      <c r="H88" s="121" t="s">
         <v>267</v>
       </c>
-      <c r="I88" s="74" t="s">
+      <c r="I88" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="J88" s="74" t="s">
+      <c r="J88" s="125" t="s">
         <v>264</v>
       </c>
-      <c r="K88" s="131" t="s">
+      <c r="K88" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="L88" s="135" t="s">
+      <c r="L88" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="M88" s="135" t="s">
+      <c r="M88" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="N88" s="157"/>
-      <c r="O88" s="135" t="s">
+      <c r="N88" s="137"/>
+      <c r="O88" s="126" t="s">
         <v>268</v>
       </c>
-      <c r="P88" s="74" t="s">
+      <c r="P88" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q88" s="125" t="s">
+        <v>324</v>
+      </c>
+      <c r="R88" s="121">
+        <v>201480</v>
+      </c>
+      <c r="S88" s="121">
+        <v>1000</v>
+      </c>
+      <c r="T88" s="121">
+        <v>2</v>
+      </c>
+      <c r="U88" s="121">
+        <v>4</v>
+      </c>
+      <c r="V88" s="125" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" s="121" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A89" s="118" t="s">
+        <v>336</v>
+      </c>
+      <c r="D89" s="122" t="s">
+        <v>337</v>
+      </c>
+      <c r="E89" s="123" t="s">
+        <v>338</v>
+      </c>
+      <c r="F89" s="124" t="s">
+        <v>197</v>
+      </c>
+      <c r="G89" s="124" t="s">
+        <v>196</v>
+      </c>
+      <c r="H89" s="121" t="s">
+        <v>33</v>
+      </c>
+      <c r="I89" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="J89" s="125" t="s">
+        <v>264</v>
+      </c>
+      <c r="K89" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="L89" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="M89" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="N89" s="137"/>
+      <c r="O89" s="126" t="s">
+        <v>268</v>
+      </c>
+      <c r="P89" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q89" s="125" t="s">
+        <v>324</v>
+      </c>
+      <c r="R89" s="121">
+        <v>201480</v>
+      </c>
+      <c r="S89" s="121">
+        <v>1000</v>
+      </c>
+      <c r="T89" s="121">
+        <v>1</v>
+      </c>
+      <c r="U89" s="121">
+        <v>1</v>
+      </c>
+      <c r="V89" s="125" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" s="121" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A90" s="118" t="s">
         <v>339</v>
       </c>
-      <c r="Q88" s="74" t="s">
+      <c r="D90" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="E90" s="123" t="s">
+        <v>341</v>
+      </c>
+      <c r="F90" s="124" t="s">
+        <v>197</v>
+      </c>
+      <c r="G90" s="124" t="s">
+        <v>196</v>
+      </c>
+      <c r="H90" s="121" t="s">
+        <v>33</v>
+      </c>
+      <c r="I90" s="125" t="s">
+        <v>34</v>
+      </c>
+      <c r="J90" s="125" t="s">
+        <v>264</v>
+      </c>
+      <c r="K90" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="L90" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="M90" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="N90" s="137"/>
+      <c r="O90" s="126" t="s">
+        <v>268</v>
+      </c>
+      <c r="P90" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q90" s="125" t="s">
         <v>324</v>
       </c>
-      <c r="R88" s="131">
+      <c r="R90" s="121">
         <v>201480</v>
       </c>
-      <c r="S88" s="131">
+      <c r="S90" s="121">
         <v>1000</v>
       </c>
-      <c r="T88" s="131">
-        <v>2</v>
-      </c>
-      <c r="U88" s="131">
-        <v>4</v>
-      </c>
-      <c r="V88" s="74" t="s">
+      <c r="T90" s="121">
+        <v>1</v>
+      </c>
+      <c r="U90" s="121">
+        <v>1</v>
+      </c>
+      <c r="V90" s="125" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="89" spans="1:22" s="131" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A89" s="119" t="s">
-        <v>336</v>
-      </c>
-      <c r="D89" s="132" t="s">
-        <v>337</v>
-      </c>
-      <c r="E89" s="133" t="s">
-        <v>338</v>
-      </c>
-      <c r="F89" s="134" t="s">
+    <row r="91" spans="1:22" s="51" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A91" s="119" t="s">
+        <v>342</v>
+      </c>
+      <c r="D91" s="120" t="s">
+        <v>343</v>
+      </c>
+      <c r="E91" s="104" t="s">
+        <v>344</v>
+      </c>
+      <c r="F91" s="157" t="s">
         <v>197</v>
       </c>
-      <c r="G89" s="134" t="s">
+      <c r="G91" s="157" t="s">
         <v>196</v>
       </c>
-      <c r="H89" s="51" t="s">
+      <c r="H91" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="I89" s="74" t="s">
+      <c r="I91" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="J89" s="74" t="s">
+      <c r="J91" s="52" t="s">
         <v>264</v>
       </c>
-      <c r="K89" s="131" t="s">
+      <c r="K91" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="L89" s="135" t="s">
+      <c r="L91" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="M89" s="135" t="s">
+      <c r="M91" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N89" s="157"/>
-      <c r="O89" s="135" t="s">
+      <c r="N91" s="135"/>
+      <c r="O91" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="P89" s="74" t="s">
+      <c r="P91" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="Q89" s="74" t="s">
+      <c r="Q91" s="52" t="s">
         <v>324</v>
       </c>
-      <c r="R89" s="131">
+      <c r="R91" s="51">
         <v>201480</v>
       </c>
-      <c r="S89" s="131">
+      <c r="S91" s="51">
         <v>1000</v>
       </c>
-      <c r="T89" s="131">
+      <c r="T91" s="51">
         <v>1</v>
       </c>
-      <c r="U89" s="131">
+      <c r="U91" s="51">
         <v>1</v>
       </c>
-      <c r="V89" s="74" t="s">
+      <c r="V91" s="52" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="91" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="92" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="93" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="94" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="95" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="92" spans="1:22" s="51" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A92" s="119" t="s">
+        <v>345</v>
+      </c>
+      <c r="D92" s="120" t="s">
+        <v>346</v>
+      </c>
+      <c r="E92" s="104" t="s">
+        <v>347</v>
+      </c>
+      <c r="F92" s="157" t="s">
+        <v>197</v>
+      </c>
+      <c r="G92" s="157" t="s">
+        <v>196</v>
+      </c>
+      <c r="H92" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I92" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="J92" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="K92" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="L92" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M92" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="N92" s="135"/>
+      <c r="O92" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="P92" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q92" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="R92" s="51">
+        <v>201480</v>
+      </c>
+      <c r="S92" s="51">
+        <v>1000</v>
+      </c>
+      <c r="T92" s="51">
+        <v>1</v>
+      </c>
+      <c r="U92" s="51">
+        <v>1</v>
+      </c>
+      <c r="V92" s="52" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" s="51" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A93" s="119" t="s">
+        <v>348</v>
+      </c>
+      <c r="D93" s="120" t="s">
+        <v>349</v>
+      </c>
+      <c r="E93" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="F93" s="157" t="s">
+        <v>197</v>
+      </c>
+      <c r="G93" s="157" t="s">
+        <v>196</v>
+      </c>
+      <c r="H93" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I93" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="J93" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="K93" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="L93" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M93" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="N93" s="135"/>
+      <c r="O93" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="P93" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q93" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="R93" s="51">
+        <v>201480</v>
+      </c>
+      <c r="S93" s="51">
+        <v>1000</v>
+      </c>
+      <c r="T93" s="51">
+        <v>1</v>
+      </c>
+      <c r="U93" s="51">
+        <v>1</v>
+      </c>
+      <c r="V93" s="52" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" s="51" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A94" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="D94" s="120" t="s">
+        <v>352</v>
+      </c>
+      <c r="E94" s="104" t="s">
+        <v>353</v>
+      </c>
+      <c r="F94" s="157" t="s">
+        <v>197</v>
+      </c>
+      <c r="G94" s="157" t="s">
+        <v>196</v>
+      </c>
+      <c r="H94" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I94" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="J94" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="K94" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="L94" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M94" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="N94" s="135"/>
+      <c r="O94" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="P94" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q94" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="R94" s="51">
+        <v>201480</v>
+      </c>
+      <c r="S94" s="51">
+        <v>1000</v>
+      </c>
+      <c r="T94" s="51">
+        <v>1</v>
+      </c>
+      <c r="U94" s="51">
+        <v>1</v>
+      </c>
+      <c r="V94" s="52" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" s="51" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A95" s="119" t="s">
+        <v>354</v>
+      </c>
+      <c r="D95" s="120" t="s">
+        <v>355</v>
+      </c>
+      <c r="E95" s="104" t="s">
+        <v>356</v>
+      </c>
+      <c r="F95" s="157" t="s">
+        <v>197</v>
+      </c>
+      <c r="G95" s="157" t="s">
+        <v>196</v>
+      </c>
+      <c r="H95" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I95" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="J95" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="K95" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="L95" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M95" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="N95" s="135"/>
+      <c r="O95" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="P95" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q95" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="R95" s="51">
+        <v>201480</v>
+      </c>
+      <c r="S95" s="51">
+        <v>1000</v>
+      </c>
+      <c r="T95" s="51">
+        <v>1</v>
+      </c>
+      <c r="U95" s="51">
+        <v>1</v>
+      </c>
+      <c r="V95" s="52" t="s">
+        <v>335</v>
+      </c>
+    </row>
     <row r="96" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>
@@ -7197,31 +7607,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:XFD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="16.140625" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" customWidth="1"/>
     <col min="13" max="13" width="17.28515625" customWidth="1"/>
     <col min="14" max="14" width="20.5703125" customWidth="1"/>
-    <col min="15" max="15" width="25.140625" customWidth="1"/>
-    <col min="16" max="16" width="32.7109375" customWidth="1"/>
-    <col min="17" max="17" width="30.42578125" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
     <col min="20" max="20" width="17.85546875" customWidth="1"/>
     <col min="21" max="21" width="18.42578125" customWidth="1"/>
     <col min="22" max="25" width="8.7109375" customWidth="1"/>
@@ -9185,15 +9595,15 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="129"/>
-      <c r="B33" s="140" t="s">
+      <c r="A33" s="127"/>
+      <c r="B33" s="142" t="s">
         <v>229</v>
       </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="143"/>
       <c r="H33" s="59"/>
       <c r="I33" s="59"/>
       <c r="J33" s="59"/>
@@ -10033,17 +10443,17 @@
       </c>
     </row>
     <row r="48" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A48" s="129"/>
-      <c r="B48" s="142" t="s">
+      <c r="A48" s="127"/>
+      <c r="B48" s="144" t="s">
         <v>204</v>
       </c>
-      <c r="C48" s="143"/>
-      <c r="D48" s="143"/>
-      <c r="E48" s="143"/>
-      <c r="F48" s="143"/>
-      <c r="G48" s="143"/>
-      <c r="H48" s="143"/>
-      <c r="I48" s="143"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+      <c r="G48" s="145"/>
+      <c r="H48" s="145"/>
+      <c r="I48" s="145"/>
       <c r="J48" s="59"/>
       <c r="K48" s="59"/>
       <c r="L48" s="59"/>
@@ -10848,16 +11258,16 @@
       </c>
     </row>
     <row r="64" spans="1:22" s="101" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A64" s="130"/>
-      <c r="B64" s="139" t="s">
+      <c r="A64" s="128"/>
+      <c r="B64" s="141" t="s">
         <v>260</v>
       </c>
-      <c r="C64" s="139"/>
-      <c r="D64" s="139"/>
-      <c r="E64" s="139"/>
-      <c r="F64" s="139"/>
-      <c r="G64" s="139"/>
-      <c r="H64" s="139"/>
+      <c r="C64" s="141"/>
+      <c r="D64" s="141"/>
+      <c r="E64" s="141"/>
+      <c r="F64" s="141"/>
+      <c r="G64" s="141"/>
+      <c r="H64" s="141"/>
       <c r="T64" s="57" t="s">
         <v>201</v>
       </c>
@@ -11183,7 +11593,7 @@
       </c>
     </row>
     <row r="70" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A70" s="111">
+      <c r="A70" s="110">
         <v>6624140</v>
       </c>
       <c r="B70" s="55"/>
@@ -11247,7 +11657,7 @@
       </c>
     </row>
     <row r="71" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A71" s="111">
+      <c r="A71" s="110">
         <v>6624141</v>
       </c>
       <c r="B71" s="55"/>
@@ -11311,7 +11721,7 @@
       </c>
     </row>
     <row r="72" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A72" s="111">
+      <c r="A72" s="110">
         <v>6624142</v>
       </c>
       <c r="B72" s="55"/>
@@ -11375,7 +11785,7 @@
       </c>
     </row>
     <row r="73" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A73" s="111">
+      <c r="A73" s="110">
         <v>6624158</v>
       </c>
       <c r="B73" s="55"/>
@@ -11439,7 +11849,7 @@
       </c>
     </row>
     <row r="74" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A74" s="111">
+      <c r="A74" s="110">
         <v>6624159</v>
       </c>
       <c r="B74" s="55"/>
@@ -11503,7 +11913,7 @@
       </c>
     </row>
     <row r="75" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A75" s="111">
+      <c r="A75" s="110">
         <v>6624160</v>
       </c>
       <c r="B75" s="55"/>
@@ -11567,7 +11977,7 @@
       </c>
     </row>
     <row r="76" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A76" s="111">
+      <c r="A76" s="110">
         <v>6624162</v>
       </c>
       <c r="B76" s="55"/>
@@ -11631,7 +12041,7 @@
       </c>
     </row>
     <row r="77" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A77" s="111">
+      <c r="A77" s="110">
         <v>6624161</v>
       </c>
       <c r="B77" s="55"/>
@@ -11695,7 +12105,7 @@
       </c>
     </row>
     <row r="78" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A78" s="111">
+      <c r="A78" s="110">
         <v>6624163</v>
       </c>
       <c r="B78" s="55"/>
@@ -11759,7 +12169,7 @@
       </c>
     </row>
     <row r="79" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A79" s="111">
+      <c r="A79" s="110">
         <v>6624164</v>
       </c>
       <c r="B79" s="55"/>
@@ -11823,7 +12233,7 @@
       </c>
     </row>
     <row r="80" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A80" s="111">
+      <c r="A80" s="110">
         <v>6624165</v>
       </c>
       <c r="B80" s="55"/>
@@ -11887,7 +12297,7 @@
       </c>
     </row>
     <row r="81" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A81" s="120" t="s">
+      <c r="A81" s="118" t="s">
         <v>298</v>
       </c>
       <c r="B81" s="55"/>
@@ -11951,7 +12361,7 @@
       </c>
     </row>
     <row r="82" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A82" s="120" t="s">
+      <c r="A82" s="118" t="s">
         <v>299</v>
       </c>
       <c r="B82" s="55"/>
@@ -12015,7 +12425,7 @@
       </c>
     </row>
     <row r="83" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="120" t="s">
+      <c r="A83" s="118" t="s">
         <v>300</v>
       </c>
       <c r="B83" s="55"/>
@@ -12079,7 +12489,7 @@
       </c>
     </row>
     <row r="84" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A84" s="120" t="s">
+      <c r="A84" s="118" t="s">
         <v>301</v>
       </c>
       <c r="B84" s="55"/>
@@ -12143,7 +12553,7 @@
       </c>
     </row>
     <row r="85" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A85" s="120" t="s">
+      <c r="A85" s="118" t="s">
         <v>302</v>
       </c>
       <c r="B85" s="55"/>
@@ -12207,7 +12617,7 @@
       </c>
     </row>
     <row r="86" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A86" s="120" t="s">
+      <c r="A86" s="118" t="s">
         <v>303</v>
       </c>
       <c r="B86" s="55"/>
@@ -12271,7 +12681,7 @@
       </c>
     </row>
     <row r="87" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A87" s="120" t="s">
+      <c r="A87" s="118" t="s">
         <v>304</v>
       </c>
       <c r="B87" s="55"/>
@@ -12335,7 +12745,7 @@
       </c>
     </row>
     <row r="88" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A88" s="120" t="s">
+      <c r="A88" s="118" t="s">
         <v>305</v>
       </c>
       <c r="B88" s="55"/>
@@ -12405,7 +12815,7 @@
       </c>
     </row>
     <row r="90" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A90" s="120" t="s">
+      <c r="A90" s="118" t="s">
         <v>328</v>
       </c>
       <c r="B90" s="55"/>
@@ -12469,16 +12879,16 @@
       </c>
     </row>
     <row r="91" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A91" s="120" t="s">
+      <c r="A91" s="118" t="s">
         <v>336</v>
       </c>
       <c r="B91" s="55"/>
       <c r="C91" s="55"/>
       <c r="D91" s="55" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="E91" s="55" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="F91" s="55" t="s">
         <v>51</v>
@@ -12523,7 +12933,7 @@
         <v>1</v>
       </c>
       <c r="T91" s="57" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="U91" s="55" t="s">
         <v>324</v>
@@ -12532,67 +12942,433 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1">
+    <row r="92" spans="1:22" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A92" s="118" t="s">
+        <v>339</v>
+      </c>
+      <c r="B92" s="55"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="E92" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="F92" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G92" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="H92" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="I92" s="67">
+        <v>12230</v>
+      </c>
+      <c r="J92" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="K92" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="L92" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="M92" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="N92" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="O92" s="67">
+        <v>100000000</v>
+      </c>
+      <c r="P92" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q92" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="R92" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="S92" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="T92" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="U92" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="V92" s="67">
+        <v>201480</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" s="51" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A93" s="119" t="s">
+        <v>342</v>
+      </c>
+      <c r="B93" s="113"/>
+      <c r="C93" s="113"/>
+      <c r="D93" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="E93" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="F93" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="G93" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="H93" s="113" t="s">
+        <v>30</v>
+      </c>
+      <c r="I93" s="150">
+        <v>12230</v>
+      </c>
+      <c r="J93" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="K93" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="L93" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="M93" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="N93" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="O93" s="150">
+        <v>100000000</v>
+      </c>
+      <c r="P93" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q93" s="151" t="s">
+        <v>63</v>
+      </c>
+      <c r="R93" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="S93" s="152" t="b">
+        <v>1</v>
+      </c>
+      <c r="T93" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="U93" s="113" t="s">
+        <v>324</v>
+      </c>
+      <c r="V93" s="150">
+        <v>201480</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" s="51" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A94" s="119" t="s">
+        <v>345</v>
+      </c>
+      <c r="B94" s="113"/>
+      <c r="C94" s="113"/>
+      <c r="D94" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="E94" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="F94" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="G94" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="H94" s="113" t="s">
+        <v>30</v>
+      </c>
+      <c r="I94" s="150">
+        <v>12230</v>
+      </c>
+      <c r="J94" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="K94" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="L94" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="M94" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="N94" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="O94" s="150">
+        <v>100000000</v>
+      </c>
+      <c r="P94" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q94" s="151" t="s">
+        <v>63</v>
+      </c>
+      <c r="R94" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="S94" s="152" t="b">
+        <v>1</v>
+      </c>
+      <c r="T94" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="U94" s="113" t="s">
+        <v>324</v>
+      </c>
+      <c r="V94" s="150">
+        <v>201480</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" s="51" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A95" s="119" t="s">
+        <v>348</v>
+      </c>
+      <c r="B95" s="113"/>
+      <c r="C95" s="113"/>
+      <c r="D95" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="E95" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="F95" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="G95" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="H95" s="113" t="s">
+        <v>30</v>
+      </c>
+      <c r="I95" s="150">
+        <v>12230</v>
+      </c>
+      <c r="J95" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="K95" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="L95" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="M95" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="N95" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="O95" s="150">
+        <v>100000000</v>
+      </c>
+      <c r="P95" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q95" s="151" t="s">
+        <v>63</v>
+      </c>
+      <c r="R95" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="S95" s="152" t="b">
+        <v>1</v>
+      </c>
+      <c r="T95" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="U95" s="113" t="s">
+        <v>324</v>
+      </c>
+      <c r="V95" s="150">
+        <v>201480</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" s="51" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A96" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="B96" s="113"/>
+      <c r="C96" s="113"/>
+      <c r="D96" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="E96" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="F96" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="G96" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="H96" s="113" t="s">
+        <v>30</v>
+      </c>
+      <c r="I96" s="150">
+        <v>12230</v>
+      </c>
+      <c r="J96" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="K96" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="L96" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="M96" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="N96" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="O96" s="150">
+        <v>100000000</v>
+      </c>
+      <c r="P96" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q96" s="151" t="s">
+        <v>63</v>
+      </c>
+      <c r="R96" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="S96" s="152" t="b">
+        <v>1</v>
+      </c>
+      <c r="T96" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="U96" s="113" t="s">
+        <v>324</v>
+      </c>
+      <c r="V96" s="150">
+        <v>201480</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" s="51" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A97" s="119" t="s">
+        <v>354</v>
+      </c>
+      <c r="B97" s="113"/>
+      <c r="C97" s="113"/>
+      <c r="D97" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="E97" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="F97" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="G97" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="H97" s="113" t="s">
+        <v>30</v>
+      </c>
+      <c r="I97" s="150">
+        <v>12230</v>
+      </c>
+      <c r="J97" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="K97" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="L97" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="M97" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="N97" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="O97" s="150">
+        <v>100000000</v>
+      </c>
+      <c r="P97" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q97" s="151" t="s">
+        <v>63</v>
+      </c>
+      <c r="R97" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="S97" s="152" t="b">
+        <v>1</v>
+      </c>
+      <c r="T97" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="U97" s="113" t="s">
+        <v>324</v>
+      </c>
+      <c r="V97" s="150">
+        <v>201480</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1">
+    <row r="99" spans="1:22" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1">
+    <row r="100" spans="1:22" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1">
+    <row r="101" spans="1:22" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1">
+    <row r="102" spans="1:22" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1">
+    <row r="103" spans="1:22" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1">
+    <row r="104" spans="1:22" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1">
+    <row r="105" spans="1:22" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1">
+    <row r="106" spans="1:22" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1">
+    <row r="107" spans="1:22" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1">
+    <row r="108" spans="1:22" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1">
+    <row r="109" spans="1:22" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1">
+    <row r="110" spans="1:22" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1">
+    <row r="111" spans="1:22" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1">
+    <row r="112" spans="1:22" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:1" ht="15.75" customHeight="1">
@@ -15235,8 +16011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R990"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94:XFD94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -16845,14 +17621,14 @@
     </row>
     <row r="33" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="73"/>
-      <c r="B33" s="144" t="s">
+      <c r="B33" s="146" t="s">
         <v>236</v>
       </c>
-      <c r="C33" s="144"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="144"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
       <c r="H33" s="57"/>
       <c r="I33" s="57"/>
       <c r="J33" s="57"/>
@@ -17544,14 +18320,14 @@
     </row>
     <row r="49" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
       <c r="A49" s="73"/>
-      <c r="B49" s="136" t="s">
+      <c r="B49" s="138" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="136"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
+      <c r="C49" s="138"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="138"/>
+      <c r="F49" s="138"/>
+      <c r="G49" s="138"/>
       <c r="H49" s="57"/>
       <c r="I49" s="57"/>
       <c r="J49" s="57"/>
@@ -18213,44 +18989,44 @@
     </row>
     <row r="65" spans="1:18" s="101" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A65" s="102"/>
-      <c r="B65" s="139" t="s">
+      <c r="B65" s="141" t="s">
         <v>260</v>
       </c>
-      <c r="C65" s="139"/>
-      <c r="D65" s="139"/>
-      <c r="E65" s="139"/>
-      <c r="F65" s="139"/>
-      <c r="G65" s="139"/>
-      <c r="H65" s="139"/>
+      <c r="C65" s="141"/>
+      <c r="D65" s="141"/>
+      <c r="E65" s="141"/>
+      <c r="F65" s="141"/>
+      <c r="G65" s="141"/>
+      <c r="H65" s="141"/>
       <c r="N65" s="72" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:18" s="52" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A66" s="113">
+      <c r="A66" s="112">
         <v>6624135</v>
       </c>
-      <c r="B66" s="114"/>
-      <c r="C66" s="114"/>
+      <c r="B66" s="113"/>
+      <c r="C66" s="113"/>
       <c r="D66" s="55" t="s">
         <v>297</v>
       </c>
       <c r="E66" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="F66" s="114" t="s">
+      <c r="F66" s="113" t="s">
         <v>261</v>
       </c>
-      <c r="G66" s="114" t="s">
+      <c r="G66" s="113" t="s">
         <v>261</v>
       </c>
-      <c r="H66" s="114" t="s">
+      <c r="H66" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="I66" s="114" t="s">
+      <c r="I66" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="J66" s="114" t="s">
+      <c r="J66" s="113" t="s">
         <v>24</v>
       </c>
       <c r="K66" s="53" t="s">
@@ -18259,19 +19035,19 @@
       <c r="L66" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="M66" s="115" t="s">
+      <c r="M66" s="114" t="s">
         <v>65</v>
       </c>
       <c r="N66" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="O66" s="114" t="s">
+      <c r="O66" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="P66" s="114" t="s">
+      <c r="P66" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="Q66" s="114" t="s">
+      <c r="Q66" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R66" s="51">
@@ -18279,30 +19055,30 @@
       </c>
     </row>
     <row r="67" spans="1:18" s="52" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A67" s="113">
+      <c r="A67" s="112">
         <v>6624136</v>
       </c>
-      <c r="B67" s="114"/>
-      <c r="C67" s="114"/>
+      <c r="B67" s="113"/>
+      <c r="C67" s="113"/>
       <c r="D67" s="55" t="s">
         <v>297</v>
       </c>
       <c r="E67" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="F67" s="114" t="s">
+      <c r="F67" s="113" t="s">
         <v>326</v>
       </c>
-      <c r="G67" s="114" t="s">
+      <c r="G67" s="113" t="s">
         <v>326</v>
       </c>
-      <c r="H67" s="114" t="s">
+      <c r="H67" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="I67" s="114" t="s">
+      <c r="I67" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="J67" s="114" t="s">
+      <c r="J67" s="113" t="s">
         <v>24</v>
       </c>
       <c r="K67" s="53" t="s">
@@ -18311,19 +19087,19 @@
       <c r="L67" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="M67" s="115" t="s">
+      <c r="M67" s="114" t="s">
         <v>65</v>
       </c>
       <c r="N67" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="O67" s="114" t="s">
+      <c r="O67" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="P67" s="114" t="s">
+      <c r="P67" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="Q67" s="114" t="s">
+      <c r="Q67" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R67" s="51">
@@ -18375,7 +19151,7 @@
       <c r="P68" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Q68" s="114" t="s">
+      <c r="Q68" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R68" s="51">
@@ -18427,7 +19203,7 @@
       <c r="P69" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Q69" s="114" t="s">
+      <c r="Q69" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R69" s="51">
@@ -18479,7 +19255,7 @@
       <c r="P70" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Q70" s="114" t="s">
+      <c r="Q70" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R70" s="51">
@@ -18487,7 +19263,7 @@
       </c>
     </row>
     <row r="71" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A71" s="111">
+      <c r="A71" s="110">
         <v>6624140</v>
       </c>
       <c r="B71" s="55"/>
@@ -18531,7 +19307,7 @@
       <c r="P71" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Q71" s="114" t="s">
+      <c r="Q71" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R71" s="51">
@@ -18539,7 +19315,7 @@
       </c>
     </row>
     <row r="72" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A72" s="111">
+      <c r="A72" s="110">
         <v>6624141</v>
       </c>
       <c r="B72" s="55"/>
@@ -18583,7 +19359,7 @@
       <c r="P72" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Q72" s="114" t="s">
+      <c r="Q72" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R72" s="51">
@@ -18591,7 +19367,7 @@
       </c>
     </row>
     <row r="73" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A73" s="111">
+      <c r="A73" s="110">
         <v>6624142</v>
       </c>
       <c r="B73" s="55"/>
@@ -18635,7 +19411,7 @@
       <c r="P73" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Q73" s="114" t="s">
+      <c r="Q73" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R73" s="51">
@@ -18643,7 +19419,7 @@
       </c>
     </row>
     <row r="74" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A74" s="111">
+      <c r="A74" s="110">
         <v>6624158</v>
       </c>
       <c r="B74" s="55"/>
@@ -18687,7 +19463,7 @@
       <c r="P74" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Q74" s="114" t="s">
+      <c r="Q74" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R74" s="51">
@@ -18695,7 +19471,7 @@
       </c>
     </row>
     <row r="75" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A75" s="111">
+      <c r="A75" s="110">
         <v>6624159</v>
       </c>
       <c r="B75" s="55"/>
@@ -18739,7 +19515,7 @@
       <c r="P75" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Q75" s="114" t="s">
+      <c r="Q75" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R75" s="51">
@@ -18747,7 +19523,7 @@
       </c>
     </row>
     <row r="76" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A76" s="111">
+      <c r="A76" s="110">
         <v>6624160</v>
       </c>
       <c r="B76" s="55"/>
@@ -18791,7 +19567,7 @@
       <c r="P76" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Q76" s="114" t="s">
+      <c r="Q76" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R76" s="51">
@@ -18799,7 +19575,7 @@
       </c>
     </row>
     <row r="77" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A77" s="111">
+      <c r="A77" s="110">
         <v>6624162</v>
       </c>
       <c r="B77" s="55"/>
@@ -18843,7 +19619,7 @@
       <c r="P77" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Q77" s="114" t="s">
+      <c r="Q77" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R77" s="51">
@@ -18851,7 +19627,7 @@
       </c>
     </row>
     <row r="78" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A78" s="111">
+      <c r="A78" s="110">
         <v>6624161</v>
       </c>
       <c r="B78" s="55"/>
@@ -18895,7 +19671,7 @@
       <c r="P78" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Q78" s="114" t="s">
+      <c r="Q78" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R78" s="51">
@@ -18903,7 +19679,7 @@
       </c>
     </row>
     <row r="79" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A79" s="111">
+      <c r="A79" s="110">
         <v>6624163</v>
       </c>
       <c r="B79" s="55"/>
@@ -18947,7 +19723,7 @@
       <c r="P79" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Q79" s="114" t="s">
+      <c r="Q79" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R79" s="51">
@@ -18955,7 +19731,7 @@
       </c>
     </row>
     <row r="80" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A80" s="111">
+      <c r="A80" s="110">
         <v>6624164</v>
       </c>
       <c r="B80" s="55"/>
@@ -18999,7 +19775,7 @@
       <c r="P80" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Q80" s="114" t="s">
+      <c r="Q80" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R80" s="51">
@@ -19007,7 +19783,7 @@
       </c>
     </row>
     <row r="81" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A81" s="111">
+      <c r="A81" s="110">
         <v>6624165</v>
       </c>
       <c r="B81" s="55"/>
@@ -19051,7 +19827,7 @@
       <c r="P81" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Q81" s="114" t="s">
+      <c r="Q81" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R81" s="51">
@@ -19059,30 +19835,30 @@
       </c>
     </row>
     <row r="82" spans="1:18" s="52" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A82" s="121" t="s">
+      <c r="A82" s="119" t="s">
         <v>298</v>
       </c>
-      <c r="B82" s="114"/>
-      <c r="C82" s="114"/>
-      <c r="D82" s="114" t="s">
+      <c r="B82" s="113"/>
+      <c r="C82" s="113"/>
+      <c r="D82" s="113" t="s">
         <v>297</v>
       </c>
-      <c r="E82" s="114" t="s">
+      <c r="E82" s="113" t="s">
         <v>297</v>
       </c>
-      <c r="F82" s="122" t="s">
+      <c r="F82" s="120" t="s">
         <v>306</v>
       </c>
-      <c r="G82" s="122" t="s">
+      <c r="G82" s="120" t="s">
         <v>306</v>
       </c>
-      <c r="H82" s="114" t="s">
+      <c r="H82" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="I82" s="114" t="s">
+      <c r="I82" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="J82" s="114" t="s">
+      <c r="J82" s="113" t="s">
         <v>24</v>
       </c>
       <c r="K82" s="53" t="s">
@@ -19091,19 +19867,19 @@
       <c r="L82" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="M82" s="115" t="s">
+      <c r="M82" s="114" t="s">
         <v>65</v>
       </c>
       <c r="N82" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="O82" s="114" t="s">
+      <c r="O82" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="P82" s="114" t="s">
+      <c r="P82" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="Q82" s="114" t="s">
+      <c r="Q82" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R82" s="51">
@@ -19111,7 +19887,7 @@
       </c>
     </row>
     <row r="83" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="120" t="s">
+      <c r="A83" s="118" t="s">
         <v>299</v>
       </c>
       <c r="B83" s="55"/>
@@ -19155,7 +19931,7 @@
       <c r="P83" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Q83" s="114" t="s">
+      <c r="Q83" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R83" s="51">
@@ -19163,7 +19939,7 @@
       </c>
     </row>
     <row r="84" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A84" s="120" t="s">
+      <c r="A84" s="118" t="s">
         <v>300</v>
       </c>
       <c r="B84" s="55"/>
@@ -19207,7 +19983,7 @@
       <c r="P84" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Q84" s="114" t="s">
+      <c r="Q84" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R84" s="51">
@@ -19215,7 +19991,7 @@
       </c>
     </row>
     <row r="85" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A85" s="120" t="s">
+      <c r="A85" s="118" t="s">
         <v>301</v>
       </c>
       <c r="B85" s="55"/>
@@ -19259,7 +20035,7 @@
       <c r="P85" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Q85" s="114" t="s">
+      <c r="Q85" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R85" s="51">
@@ -19267,7 +20043,7 @@
       </c>
     </row>
     <row r="86" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A86" s="120" t="s">
+      <c r="A86" s="118" t="s">
         <v>302</v>
       </c>
       <c r="B86" s="55"/>
@@ -19311,7 +20087,7 @@
       <c r="P86" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Q86" s="114" t="s">
+      <c r="Q86" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R86" s="51">
@@ -19319,7 +20095,7 @@
       </c>
     </row>
     <row r="87" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A87" s="120" t="s">
+      <c r="A87" s="118" t="s">
         <v>303</v>
       </c>
       <c r="B87" s="55"/>
@@ -19363,7 +20139,7 @@
       <c r="P87" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Q87" s="114" t="s">
+      <c r="Q87" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R87" s="51">
@@ -19371,7 +20147,7 @@
       </c>
     </row>
     <row r="88" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A88" s="120" t="s">
+      <c r="A88" s="118" t="s">
         <v>304</v>
       </c>
       <c r="B88" s="55"/>
@@ -19415,7 +20191,7 @@
       <c r="P88" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Q88" s="114" t="s">
+      <c r="Q88" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R88" s="51">
@@ -19423,30 +20199,30 @@
       </c>
     </row>
     <row r="89" spans="1:18" s="52" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A89" s="121" t="s">
+      <c r="A89" s="119" t="s">
         <v>305</v>
       </c>
-      <c r="B89" s="114"/>
-      <c r="C89" s="114"/>
-      <c r="D89" s="114" t="s">
+      <c r="B89" s="113"/>
+      <c r="C89" s="113"/>
+      <c r="D89" s="113" t="s">
         <v>297</v>
       </c>
-      <c r="E89" s="114" t="s">
+      <c r="E89" s="113" t="s">
         <v>297</v>
       </c>
-      <c r="F89" s="122" t="s">
+      <c r="F89" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="G89" s="122" t="s">
+      <c r="G89" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="H89" s="114" t="s">
+      <c r="H89" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="I89" s="114" t="s">
+      <c r="I89" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="J89" s="114" t="s">
+      <c r="J89" s="113" t="s">
         <v>24</v>
       </c>
       <c r="K89" s="53" t="s">
@@ -19455,46 +20231,46 @@
       <c r="L89" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="M89" s="115" t="s">
+      <c r="M89" s="114" t="s">
         <v>65</v>
       </c>
       <c r="N89" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="O89" s="114" t="s">
+      <c r="O89" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="P89" s="114" t="s">
+      <c r="P89" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="Q89" s="114" t="s">
+      <c r="Q89" s="113" t="s">
         <v>324</v>
       </c>
       <c r="R89" s="51">
         <v>201480</v>
       </c>
     </row>
-    <row r="90" spans="1:18" s="118" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A90" s="117"/>
-      <c r="D90" s="116"/>
-      <c r="E90" s="116"/>
-      <c r="G90" s="117"/>
-      <c r="M90" s="117"/>
+    <row r="90" spans="1:18" s="117" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A90" s="116"/>
+      <c r="D90" s="115"/>
+      <c r="E90" s="115"/>
+      <c r="G90" s="116"/>
+      <c r="M90" s="116"/>
       <c r="N90" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="Q90" s="116"/>
-    </row>
-    <row r="91" spans="1:18" s="52" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A91" s="121" t="s">
+      <c r="Q90" s="115"/>
+    </row>
+    <row r="91" spans="1:18" s="125" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A91" s="118" t="s">
         <v>328</v>
       </c>
-      <c r="B91" s="114"/>
-      <c r="C91" s="114"/>
-      <c r="D91" s="114" t="s">
+      <c r="B91" s="153"/>
+      <c r="C91" s="153"/>
+      <c r="D91" s="153" t="s">
         <v>297</v>
       </c>
-      <c r="E91" s="114" t="s">
+      <c r="E91" s="153" t="s">
         <v>297</v>
       </c>
       <c r="F91" s="122" t="s">
@@ -19503,51 +20279,51 @@
       <c r="G91" s="122" t="s">
         <v>329</v>
       </c>
-      <c r="H91" s="114" t="s">
+      <c r="H91" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="I91" s="114" t="s">
+      <c r="I91" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="J91" s="114" t="s">
+      <c r="J91" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="K91" s="53" t="s">
+      <c r="K91" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="L91" s="53" t="s">
+      <c r="L91" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="M91" s="115" t="s">
+      <c r="M91" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="N91" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="O91" s="114" t="s">
+      <c r="N91" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="O91" s="153" t="s">
         <v>61</v>
       </c>
-      <c r="P91" s="114" t="s">
+      <c r="P91" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="Q91" s="114" t="s">
+      <c r="Q91" s="153" t="s">
         <v>324</v>
       </c>
-      <c r="R91" s="51">
+      <c r="R91" s="121">
         <v>201480</v>
       </c>
     </row>
-    <row r="92" spans="1:18" s="52" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A92" s="121" t="s">
+    <row r="92" spans="1:18" s="125" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A92" s="118" t="s">
         <v>336</v>
       </c>
-      <c r="B92" s="114"/>
-      <c r="C92" s="114"/>
-      <c r="D92" s="114" t="s">
-        <v>340</v>
-      </c>
-      <c r="E92" s="114" t="s">
-        <v>340</v>
+      <c r="B92" s="153"/>
+      <c r="C92" s="153"/>
+      <c r="D92" s="153" t="s">
+        <v>297</v>
+      </c>
+      <c r="E92" s="153" t="s">
+        <v>297</v>
       </c>
       <c r="F92" s="122" t="s">
         <v>337</v>
@@ -19555,159 +20331,351 @@
       <c r="G92" s="122" t="s">
         <v>337</v>
       </c>
-      <c r="H92" s="114" t="s">
+      <c r="H92" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="I92" s="114" t="s">
+      <c r="I92" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="J92" s="114" t="s">
+      <c r="J92" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="K92" s="53" t="s">
+      <c r="K92" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="L92" s="53" t="s">
+      <c r="L92" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="M92" s="115" t="s">
+      <c r="M92" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="N92" s="54" t="s">
+      <c r="N92" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="O92" s="153" t="s">
+        <v>61</v>
+      </c>
+      <c r="P92" s="153" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q92" s="153" t="s">
+        <v>324</v>
+      </c>
+      <c r="R92" s="121">
+        <v>201480</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" s="125" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A93" s="118" t="s">
+        <v>339</v>
+      </c>
+      <c r="B93" s="153"/>
+      <c r="C93" s="153"/>
+      <c r="D93" s="153" t="s">
+        <v>297</v>
+      </c>
+      <c r="E93" s="153" t="s">
+        <v>297</v>
+      </c>
+      <c r="F93" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="G93" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="H93" s="153" t="s">
+        <v>22</v>
+      </c>
+      <c r="I93" s="153" t="s">
+        <v>23</v>
+      </c>
+      <c r="J93" s="153" t="s">
+        <v>24</v>
+      </c>
+      <c r="K93" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="L93" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="M93" s="154" t="s">
+        <v>65</v>
+      </c>
+      <c r="N93" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="O93" s="153" t="s">
+        <v>61</v>
+      </c>
+      <c r="P93" s="153" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q93" s="153" t="s">
+        <v>324</v>
+      </c>
+      <c r="R93" s="121">
+        <v>201480</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" s="52" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A94" s="119" t="s">
+        <v>342</v>
+      </c>
+      <c r="B94" s="113"/>
+      <c r="C94" s="113"/>
+      <c r="D94" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="E94" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="F94" s="120" t="s">
+        <v>343</v>
+      </c>
+      <c r="G94" s="120" t="s">
+        <v>343</v>
+      </c>
+      <c r="H94" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="I94" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="J94" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="K94" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="L94" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="M94" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="N94" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="O92" s="114" t="s">
+      <c r="O94" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="P92" s="114" t="s">
+      <c r="P94" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="Q92" s="114" t="s">
+      <c r="Q94" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="R92" s="51">
+      <c r="R94" s="51">
         <v>201480</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A93" s="119"/>
-      <c r="B93" s="55"/>
-      <c r="C93" s="55"/>
-      <c r="D93" s="55"/>
-      <c r="E93" s="55"/>
-      <c r="F93" s="105"/>
-      <c r="G93" s="105"/>
-      <c r="H93" s="55"/>
-      <c r="I93" s="55"/>
-      <c r="J93" s="77"/>
-      <c r="K93" s="53"/>
-      <c r="L93" s="53"/>
-      <c r="M93" s="71"/>
-      <c r="N93" s="72"/>
-      <c r="O93" s="55"/>
-      <c r="P93" s="55"/>
-      <c r="Q93" s="55"/>
-      <c r="R93" s="51"/>
-    </row>
-    <row r="94" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A94" s="119"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="55"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="105"/>
-      <c r="G94" s="105"/>
-      <c r="H94" s="55"/>
-      <c r="I94" s="55"/>
-      <c r="J94" s="77"/>
-      <c r="K94" s="53"/>
-      <c r="L94" s="53"/>
-      <c r="M94" s="71"/>
-      <c r="N94" s="72"/>
-      <c r="O94" s="55"/>
-      <c r="P94" s="55"/>
-      <c r="Q94" s="55"/>
-      <c r="R94" s="51"/>
-    </row>
-    <row r="95" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A95" s="119"/>
-      <c r="B95" s="55"/>
-      <c r="C95" s="55"/>
-      <c r="D95" s="55"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="105"/>
-      <c r="G95" s="105"/>
-      <c r="H95" s="55"/>
-      <c r="I95" s="55"/>
-      <c r="J95" s="77"/>
-      <c r="K95" s="53"/>
-      <c r="L95" s="53"/>
-      <c r="M95" s="71"/>
-      <c r="N95" s="72"/>
-      <c r="O95" s="55"/>
-      <c r="P95" s="55"/>
-      <c r="Q95" s="55"/>
-      <c r="R95" s="51"/>
-    </row>
-    <row r="96" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A96" s="119"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="105"/>
-      <c r="G96" s="105"/>
-      <c r="H96" s="55"/>
-      <c r="I96" s="55"/>
-      <c r="J96" s="77"/>
-      <c r="K96" s="53"/>
-      <c r="L96" s="53"/>
-      <c r="M96" s="71"/>
-      <c r="N96" s="72"/>
-      <c r="O96" s="55"/>
-      <c r="P96" s="55"/>
-      <c r="Q96" s="55"/>
-      <c r="R96" s="51"/>
-    </row>
-    <row r="97" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A97" s="119"/>
-      <c r="B97" s="55"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="105"/>
-      <c r="G97" s="105"/>
-      <c r="H97" s="55"/>
-      <c r="I97" s="55"/>
-      <c r="J97" s="77"/>
-      <c r="K97" s="53"/>
-      <c r="L97" s="53"/>
-      <c r="M97" s="71"/>
-      <c r="N97" s="72"/>
-      <c r="O97" s="55"/>
-      <c r="P97" s="55"/>
-      <c r="Q97" s="55"/>
-      <c r="R97" s="51"/>
-    </row>
-    <row r="98" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A98" s="119"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="55"/>
-      <c r="F98" s="105"/>
-      <c r="G98" s="105"/>
-      <c r="H98" s="55"/>
-      <c r="I98" s="55"/>
-      <c r="J98" s="77"/>
-      <c r="K98" s="53"/>
-      <c r="L98" s="53"/>
-      <c r="M98" s="71"/>
-      <c r="N98" s="72"/>
-      <c r="O98" s="55"/>
-      <c r="P98" s="55"/>
-      <c r="Q98" s="55"/>
-      <c r="R98" s="51"/>
+    <row r="95" spans="1:18" s="52" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A95" s="119" t="s">
+        <v>345</v>
+      </c>
+      <c r="B95" s="113"/>
+      <c r="C95" s="113"/>
+      <c r="D95" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="E95" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="F95" s="120" t="s">
+        <v>346</v>
+      </c>
+      <c r="G95" s="120" t="s">
+        <v>346</v>
+      </c>
+      <c r="H95" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="I95" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="J95" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="K95" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="L95" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="M95" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="N95" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="O95" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="P95" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q95" s="113" t="s">
+        <v>324</v>
+      </c>
+      <c r="R95" s="51">
+        <v>201480</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" s="52" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A96" s="119" t="s">
+        <v>348</v>
+      </c>
+      <c r="B96" s="113"/>
+      <c r="C96" s="113"/>
+      <c r="D96" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="E96" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="F96" s="120" t="s">
+        <v>349</v>
+      </c>
+      <c r="G96" s="120" t="s">
+        <v>349</v>
+      </c>
+      <c r="H96" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="I96" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="J96" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="K96" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="L96" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="M96" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="N96" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="O96" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="P96" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q96" s="113" t="s">
+        <v>324</v>
+      </c>
+      <c r="R96" s="51">
+        <v>201480</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" s="52" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A97" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="B97" s="113"/>
+      <c r="C97" s="113"/>
+      <c r="D97" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="E97" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="F97" s="120" t="s">
+        <v>352</v>
+      </c>
+      <c r="G97" s="120" t="s">
+        <v>352</v>
+      </c>
+      <c r="H97" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="I97" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="J97" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="K97" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="L97" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="M97" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="N97" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="O97" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="P97" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q97" s="113" t="s">
+        <v>324</v>
+      </c>
+      <c r="R97" s="51">
+        <v>201480</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" s="52" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A98" s="119" t="s">
+        <v>354</v>
+      </c>
+      <c r="B98" s="113"/>
+      <c r="C98" s="113"/>
+      <c r="D98" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="E98" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="F98" s="120" t="s">
+        <v>355</v>
+      </c>
+      <c r="G98" s="120" t="s">
+        <v>355</v>
+      </c>
+      <c r="H98" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="I98" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="J98" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="K98" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="L98" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="M98" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="N98" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="O98" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="P98" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q98" s="113" t="s">
+        <v>324</v>
+      </c>
+      <c r="R98" s="51">
+        <v>201480</v>
+      </c>
     </row>
     <row r="99" spans="1:18" ht="15.75" customHeight="1">
       <c r="A99" s="11"/>
@@ -23292,8 +24260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD982"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -24580,14 +25548,14 @@
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="59"/>
-      <c r="B33" s="136" t="s">
+      <c r="B33" s="138" t="s">
         <v>229</v>
       </c>
-      <c r="C33" s="137"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="137"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="137"/>
+      <c r="C33" s="139"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="139"/>
       <c r="H33" s="91" t="s">
         <v>201</v>
       </c>
@@ -25085,14 +26053,14 @@
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A47" s="59"/>
-      <c r="B47" s="136" t="s">
+      <c r="B47" s="138" t="s">
         <v>204</v>
       </c>
-      <c r="C47" s="137"/>
-      <c r="D47" s="137"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="139"/>
+      <c r="E47" s="139"/>
+      <c r="F47" s="139"/>
+      <c r="G47" s="139"/>
       <c r="H47" s="91" t="s">
         <v>201</v>
       </c>
@@ -25599,15 +26567,15 @@
       </c>
     </row>
     <row r="63" spans="1:14" s="100" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A63" s="109"/>
-      <c r="B63" s="145" t="s">
+      <c r="A63" s="108"/>
+      <c r="B63" s="147" t="s">
         <v>260</v>
       </c>
-      <c r="C63" s="146"/>
-      <c r="D63" s="146"/>
-      <c r="E63" s="146"/>
-      <c r="F63" s="147"/>
-      <c r="G63" s="110"/>
+      <c r="C63" s="148"/>
+      <c r="D63" s="148"/>
+      <c r="E63" s="148"/>
+      <c r="F63" s="149"/>
+      <c r="G63" s="109"/>
       <c r="H63" s="91" t="s">
         <v>201</v>
       </c>
@@ -25624,7 +26592,7 @@
       <c r="E64" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="F64" s="114" t="s">
+      <c r="F64" s="113" t="s">
         <v>261</v>
       </c>
       <c r="G64" s="104" t="s">
@@ -25633,7 +26601,7 @@
       <c r="H64" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I64" s="107">
+      <c r="I64" s="106">
         <v>1</v>
       </c>
       <c r="J64" s="53" t="s">
@@ -25642,7 +26610,7 @@
       <c r="K64" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L64" s="108" t="s">
+      <c r="L64" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M64" s="104" t="s">
@@ -25664,7 +26632,7 @@
       <c r="E65" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="F65" s="114" t="s">
+      <c r="F65" s="113" t="s">
         <v>326</v>
       </c>
       <c r="G65" s="104" t="s">
@@ -25673,7 +26641,7 @@
       <c r="H65" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I65" s="107">
+      <c r="I65" s="106">
         <v>1</v>
       </c>
       <c r="J65" s="53" t="s">
@@ -25682,7 +26650,7 @@
       <c r="K65" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L65" s="108" t="s">
+      <c r="L65" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M65" s="104" t="s">
@@ -25713,7 +26681,7 @@
       <c r="H66" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I66" s="107">
+      <c r="I66" s="106">
         <v>1</v>
       </c>
       <c r="J66" s="53" t="s">
@@ -25722,7 +26690,7 @@
       <c r="K66" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L66" s="108" t="s">
+      <c r="L66" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M66" s="104" t="s">
@@ -25753,7 +26721,7 @@
       <c r="H67" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I67" s="107">
+      <c r="I67" s="106">
         <v>1</v>
       </c>
       <c r="J67" s="53" t="s">
@@ -25762,7 +26730,7 @@
       <c r="K67" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L67" s="108" t="s">
+      <c r="L67" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M67" s="104" t="s">
@@ -25793,7 +26761,7 @@
       <c r="H68" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I68" s="107">
+      <c r="I68" s="106">
         <v>1</v>
       </c>
       <c r="J68" s="53" t="s">
@@ -25802,7 +26770,7 @@
       <c r="K68" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L68" s="108" t="s">
+      <c r="L68" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M68" s="104" t="s">
@@ -25813,7 +26781,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A69" s="111">
+      <c r="A69" s="110">
         <v>6624140</v>
       </c>
       <c r="B69" s="104"/>
@@ -25833,7 +26801,7 @@
       <c r="H69" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I69" s="107">
+      <c r="I69" s="106">
         <v>1</v>
       </c>
       <c r="J69" s="53" t="s">
@@ -25842,7 +26810,7 @@
       <c r="K69" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L69" s="108" t="s">
+      <c r="L69" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M69" s="104" t="s">
@@ -25853,7 +26821,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A70" s="111">
+      <c r="A70" s="110">
         <v>6624141</v>
       </c>
       <c r="B70" s="104"/>
@@ -25873,7 +26841,7 @@
       <c r="H70" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I70" s="107">
+      <c r="I70" s="106">
         <v>1</v>
       </c>
       <c r="J70" s="53" t="s">
@@ -25882,7 +26850,7 @@
       <c r="K70" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L70" s="108" t="s">
+      <c r="L70" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M70" s="104" t="s">
@@ -25893,7 +26861,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A71" s="111">
+      <c r="A71" s="110">
         <v>6624142</v>
       </c>
       <c r="B71" s="104"/>
@@ -25913,7 +26881,7 @@
       <c r="H71" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I71" s="107">
+      <c r="I71" s="106">
         <v>1</v>
       </c>
       <c r="J71" s="53" t="s">
@@ -25922,7 +26890,7 @@
       <c r="K71" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L71" s="108" t="s">
+      <c r="L71" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M71" s="104" t="s">
@@ -25933,7 +26901,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A72" s="111">
+      <c r="A72" s="110">
         <v>6624158</v>
       </c>
       <c r="B72" s="104"/>
@@ -25953,7 +26921,7 @@
       <c r="H72" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I72" s="107">
+      <c r="I72" s="106">
         <v>1</v>
       </c>
       <c r="J72" s="53" t="s">
@@ -25962,7 +26930,7 @@
       <c r="K72" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L72" s="108" t="s">
+      <c r="L72" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M72" s="104" t="s">
@@ -25973,7 +26941,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A73" s="111">
+      <c r="A73" s="110">
         <v>6624159</v>
       </c>
       <c r="B73" s="104"/>
@@ -25993,7 +26961,7 @@
       <c r="H73" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I73" s="107">
+      <c r="I73" s="106">
         <v>1</v>
       </c>
       <c r="J73" s="53" t="s">
@@ -26002,7 +26970,7 @@
       <c r="K73" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L73" s="108" t="s">
+      <c r="L73" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M73" s="104" t="s">
@@ -26013,7 +26981,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A74" s="111">
+      <c r="A74" s="110">
         <v>6624160</v>
       </c>
       <c r="B74" s="104"/>
@@ -26033,7 +27001,7 @@
       <c r="H74" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I74" s="107">
+      <c r="I74" s="106">
         <v>1</v>
       </c>
       <c r="J74" s="53" t="s">
@@ -26042,7 +27010,7 @@
       <c r="K74" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L74" s="108" t="s">
+      <c r="L74" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M74" s="104" t="s">
@@ -26053,7 +27021,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A75" s="111">
+      <c r="A75" s="110">
         <v>6624162</v>
       </c>
       <c r="B75" s="104"/>
@@ -26073,7 +27041,7 @@
       <c r="H75" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I75" s="107">
+      <c r="I75" s="106">
         <v>1</v>
       </c>
       <c r="J75" s="53" t="s">
@@ -26082,7 +27050,7 @@
       <c r="K75" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L75" s="108" t="s">
+      <c r="L75" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M75" s="104" t="s">
@@ -26093,7 +27061,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A76" s="111">
+      <c r="A76" s="110">
         <v>6624161</v>
       </c>
       <c r="B76" s="104"/>
@@ -26113,7 +27081,7 @@
       <c r="H76" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I76" s="107">
+      <c r="I76" s="106">
         <v>1</v>
       </c>
       <c r="J76" s="53" t="s">
@@ -26122,7 +27090,7 @@
       <c r="K76" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L76" s="108" t="s">
+      <c r="L76" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M76" s="104" t="s">
@@ -26133,7 +27101,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A77" s="111">
+      <c r="A77" s="110">
         <v>6624163</v>
       </c>
       <c r="B77" s="104"/>
@@ -26153,7 +27121,7 @@
       <c r="H77" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I77" s="107">
+      <c r="I77" s="106">
         <v>1</v>
       </c>
       <c r="J77" s="53" t="s">
@@ -26162,7 +27130,7 @@
       <c r="K77" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L77" s="108" t="s">
+      <c r="L77" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M77" s="104" t="s">
@@ -26173,7 +27141,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A78" s="111">
+      <c r="A78" s="110">
         <v>6624164</v>
       </c>
       <c r="B78" s="104"/>
@@ -26193,7 +27161,7 @@
       <c r="H78" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I78" s="107">
+      <c r="I78" s="106">
         <v>1</v>
       </c>
       <c r="J78" s="53" t="s">
@@ -26202,7 +27170,7 @@
       <c r="K78" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L78" s="108" t="s">
+      <c r="L78" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M78" s="104" t="s">
@@ -26213,7 +27181,7 @@
       </c>
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A79" s="111">
+      <c r="A79" s="110">
         <v>6624165</v>
       </c>
       <c r="B79" s="104"/>
@@ -26233,7 +27201,7 @@
       <c r="H79" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I79" s="107">
+      <c r="I79" s="106">
         <v>1</v>
       </c>
       <c r="J79" s="53" t="s">
@@ -26242,7 +27210,7 @@
       <c r="K79" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L79" s="108" t="s">
+      <c r="L79" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M79" s="104" t="s">
@@ -26253,7 +27221,7 @@
       </c>
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A80" s="121" t="s">
+      <c r="A80" s="119" t="s">
         <v>298</v>
       </c>
       <c r="B80" s="104"/>
@@ -26264,7 +27232,7 @@
       <c r="E80" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="F80" s="122" t="s">
+      <c r="F80" s="120" t="s">
         <v>306</v>
       </c>
       <c r="G80" s="104" t="s">
@@ -26273,7 +27241,7 @@
       <c r="H80" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I80" s="107">
+      <c r="I80" s="106">
         <v>1</v>
       </c>
       <c r="J80" s="53" t="s">
@@ -26282,7 +27250,7 @@
       <c r="K80" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L80" s="108" t="s">
+      <c r="L80" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M80" s="104" t="s">
@@ -26293,7 +27261,7 @@
       </c>
     </row>
     <row r="81" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A81" s="120" t="s">
+      <c r="A81" s="118" t="s">
         <v>299</v>
       </c>
       <c r="B81" s="104"/>
@@ -26313,7 +27281,7 @@
       <c r="H81" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I81" s="107">
+      <c r="I81" s="106">
         <v>1</v>
       </c>
       <c r="J81" s="53" t="s">
@@ -26322,7 +27290,7 @@
       <c r="K81" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L81" s="108" t="s">
+      <c r="L81" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M81" s="104" t="s">
@@ -26333,7 +27301,7 @@
       </c>
     </row>
     <row r="82" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A82" s="120" t="s">
+      <c r="A82" s="118" t="s">
         <v>300</v>
       </c>
       <c r="B82" s="104"/>
@@ -26353,7 +27321,7 @@
       <c r="H82" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I82" s="107">
+      <c r="I82" s="106">
         <v>1</v>
       </c>
       <c r="J82" s="53" t="s">
@@ -26362,7 +27330,7 @@
       <c r="K82" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L82" s="108" t="s">
+      <c r="L82" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M82" s="104" t="s">
@@ -26373,7 +27341,7 @@
       </c>
     </row>
     <row r="83" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="120" t="s">
+      <c r="A83" s="118" t="s">
         <v>301</v>
       </c>
       <c r="B83" s="104"/>
@@ -26393,7 +27361,7 @@
       <c r="H83" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I83" s="107">
+      <c r="I83" s="106">
         <v>1</v>
       </c>
       <c r="J83" s="53" t="s">
@@ -26402,7 +27370,7 @@
       <c r="K83" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L83" s="108" t="s">
+      <c r="L83" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M83" s="104" t="s">
@@ -26413,7 +27381,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A84" s="120" t="s">
+      <c r="A84" s="118" t="s">
         <v>302</v>
       </c>
       <c r="B84" s="104"/>
@@ -26433,7 +27401,7 @@
       <c r="H84" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I84" s="107">
+      <c r="I84" s="106">
         <v>1</v>
       </c>
       <c r="J84" s="53" t="s">
@@ -26442,7 +27410,7 @@
       <c r="K84" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L84" s="108" t="s">
+      <c r="L84" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M84" s="104" t="s">
@@ -26453,7 +27421,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A85" s="120" t="s">
+      <c r="A85" s="118" t="s">
         <v>303</v>
       </c>
       <c r="B85" s="104"/>
@@ -26473,7 +27441,7 @@
       <c r="H85" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I85" s="107">
+      <c r="I85" s="106">
         <v>1</v>
       </c>
       <c r="J85" s="53" t="s">
@@ -26482,7 +27450,7 @@
       <c r="K85" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L85" s="108" t="s">
+      <c r="L85" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M85" s="104" t="s">
@@ -26493,7 +27461,7 @@
       </c>
     </row>
     <row r="86" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A86" s="120" t="s">
+      <c r="A86" s="118" t="s">
         <v>304</v>
       </c>
       <c r="B86" s="104"/>
@@ -26513,7 +27481,7 @@
       <c r="H86" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I86" s="107">
+      <c r="I86" s="106">
         <v>1</v>
       </c>
       <c r="J86" s="53" t="s">
@@ -26522,7 +27490,7 @@
       <c r="K86" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L86" s="108" t="s">
+      <c r="L86" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M86" s="104" t="s">
@@ -26533,7 +27501,7 @@
       </c>
     </row>
     <row r="87" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A87" s="121" t="s">
+      <c r="A87" s="119" t="s">
         <v>305</v>
       </c>
       <c r="B87" s="104"/>
@@ -26544,7 +27512,7 @@
       <c r="E87" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="F87" s="122" t="s">
+      <c r="F87" s="120" t="s">
         <v>313</v>
       </c>
       <c r="G87" s="104" t="s">
@@ -26553,7 +27521,7 @@
       <c r="H87" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="I87" s="107">
+      <c r="I87" s="106">
         <v>1</v>
       </c>
       <c r="J87" s="53" t="s">
@@ -26562,7 +27530,7 @@
       <c r="K87" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L87" s="108" t="s">
+      <c r="L87" s="107" t="s">
         <v>99</v>
       </c>
       <c r="M87" s="104" t="s">
@@ -26577,92 +27545,326 @@
         <v>201</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A89" s="121" t="s">
+    <row r="89" spans="1:14" s="121" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A89" s="118" t="s">
         <v>328</v>
       </c>
-      <c r="B89" s="104"/>
-      <c r="C89" s="104"/>
-      <c r="D89" s="55" t="s">
+      <c r="B89" s="123"/>
+      <c r="C89" s="123"/>
+      <c r="D89" s="153" t="s">
         <v>297</v>
       </c>
-      <c r="E89" s="55" t="s">
+      <c r="E89" s="153" t="s">
         <v>297</v>
       </c>
       <c r="F89" s="122" t="s">
         <v>329</v>
       </c>
-      <c r="G89" s="104" t="s">
+      <c r="G89" s="123" t="s">
         <v>330</v>
       </c>
-      <c r="H89" s="106" t="s">
-        <v>201</v>
-      </c>
-      <c r="I89" s="107">
+      <c r="H89" s="123" t="s">
+        <v>201</v>
+      </c>
+      <c r="I89" s="155">
         <v>1</v>
       </c>
-      <c r="J89" s="53" t="s">
+      <c r="J89" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="K89" s="53" t="s">
+      <c r="K89" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="L89" s="108" t="s">
+      <c r="L89" s="156" t="s">
         <v>99</v>
       </c>
-      <c r="M89" s="104" t="s">
+      <c r="M89" s="123" t="s">
         <v>324</v>
       </c>
-      <c r="N89" s="51">
+      <c r="N89" s="121">
         <v>201480</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A90" s="121" t="s">
+    <row r="90" spans="1:14" s="121" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A90" s="118" t="s">
         <v>336</v>
       </c>
-      <c r="B90" s="104"/>
-      <c r="C90" s="104"/>
-      <c r="D90" s="55" t="s">
-        <v>340</v>
-      </c>
-      <c r="E90" s="55" t="s">
-        <v>340</v>
+      <c r="B90" s="123"/>
+      <c r="C90" s="123"/>
+      <c r="D90" s="153" t="s">
+        <v>297</v>
+      </c>
+      <c r="E90" s="153" t="s">
+        <v>297</v>
       </c>
       <c r="F90" s="122" t="s">
         <v>337</v>
       </c>
-      <c r="G90" s="104" t="s">
+      <c r="G90" s="123" t="s">
         <v>338</v>
       </c>
-      <c r="H90" s="106" t="s">
+      <c r="H90" s="123" t="s">
+        <v>201</v>
+      </c>
+      <c r="I90" s="155">
+        <v>1</v>
+      </c>
+      <c r="J90" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="K90" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="L90" s="156" t="s">
+        <v>99</v>
+      </c>
+      <c r="M90" s="123" t="s">
+        <v>324</v>
+      </c>
+      <c r="N90" s="121">
+        <v>201480</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="121" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A91" s="118" t="s">
+        <v>339</v>
+      </c>
+      <c r="B91" s="123"/>
+      <c r="C91" s="123"/>
+      <c r="D91" s="153" t="s">
+        <v>297</v>
+      </c>
+      <c r="E91" s="153" t="s">
+        <v>297</v>
+      </c>
+      <c r="F91" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="G91" s="123" t="s">
+        <v>341</v>
+      </c>
+      <c r="H91" s="123" t="s">
+        <v>201</v>
+      </c>
+      <c r="I91" s="155">
+        <v>1</v>
+      </c>
+      <c r="J91" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="K91" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="L91" s="156" t="s">
+        <v>99</v>
+      </c>
+      <c r="M91" s="123" t="s">
+        <v>324</v>
+      </c>
+      <c r="N91" s="121">
+        <v>201480</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" s="51" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A92" s="119" t="s">
+        <v>342</v>
+      </c>
+      <c r="B92" s="104"/>
+      <c r="C92" s="104"/>
+      <c r="D92" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="E92" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="F92" s="120" t="s">
+        <v>343</v>
+      </c>
+      <c r="G92" s="104" t="s">
+        <v>344</v>
+      </c>
+      <c r="H92" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="I90" s="107">
+      <c r="I92" s="106">
         <v>1</v>
       </c>
-      <c r="J90" s="53" t="s">
+      <c r="J92" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="K90" s="53" t="s">
+      <c r="K92" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="L90" s="108" t="s">
+      <c r="L92" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="M90" s="104" t="s">
+      <c r="M92" s="104" t="s">
         <v>324</v>
       </c>
-      <c r="N90" s="51">
+      <c r="N92" s="51">
         <v>201480</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="92" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="93" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="94" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="95" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="96" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="93" spans="1:14" s="51" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A93" s="119" t="s">
+        <v>345</v>
+      </c>
+      <c r="B93" s="104"/>
+      <c r="C93" s="104"/>
+      <c r="D93" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="E93" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="F93" s="120" t="s">
+        <v>346</v>
+      </c>
+      <c r="G93" s="104" t="s">
+        <v>347</v>
+      </c>
+      <c r="H93" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="I93" s="106">
+        <v>1</v>
+      </c>
+      <c r="J93" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="K93" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="L93" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="M93" s="104" t="s">
+        <v>324</v>
+      </c>
+      <c r="N93" s="51">
+        <v>201480</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" s="51" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A94" s="119" t="s">
+        <v>348</v>
+      </c>
+      <c r="B94" s="104"/>
+      <c r="C94" s="104"/>
+      <c r="D94" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="E94" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="F94" s="120" t="s">
+        <v>349</v>
+      </c>
+      <c r="G94" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="H94" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="I94" s="106">
+        <v>1</v>
+      </c>
+      <c r="J94" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="K94" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="L94" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="M94" s="104" t="s">
+        <v>324</v>
+      </c>
+      <c r="N94" s="51">
+        <v>201480</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="51" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A95" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="B95" s="104"/>
+      <c r="C95" s="104"/>
+      <c r="D95" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="E95" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="F95" s="120" t="s">
+        <v>352</v>
+      </c>
+      <c r="G95" s="104" t="s">
+        <v>353</v>
+      </c>
+      <c r="H95" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="I95" s="106">
+        <v>1</v>
+      </c>
+      <c r="J95" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="K95" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="L95" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="M95" s="104" t="s">
+        <v>324</v>
+      </c>
+      <c r="N95" s="51">
+        <v>201480</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" s="51" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A96" s="119" t="s">
+        <v>354</v>
+      </c>
+      <c r="B96" s="104"/>
+      <c r="C96" s="104"/>
+      <c r="D96" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="E96" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="F96" s="120" t="s">
+        <v>355</v>
+      </c>
+      <c r="G96" s="104" t="s">
+        <v>356</v>
+      </c>
+      <c r="H96" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="I96" s="106">
+        <v>1</v>
+      </c>
+      <c r="J96" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="K96" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="L96" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="M96" s="104" t="s">
+        <v>324</v>
+      </c>
+      <c r="N96" s="51">
+        <v>201480</v>
+      </c>
+    </row>
     <row r="97" ht="15.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>
     <row r="99" ht="15.75" customHeight="1"/>
